--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="430">
   <si>
     <t>Designator</t>
   </si>
@@ -133,106 +133,1087 @@
     <t>38.578mm</t>
   </si>
   <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>P6SMB30CA_C80384</t>
+  </si>
+  <si>
+    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
+  </si>
+  <si>
+    <t>19.5mm</t>
+  </si>
+  <si>
+    <t>44.496mm</t>
+  </si>
+  <si>
+    <t>44.5mm</t>
+  </si>
+  <si>
+    <t>41.9mm</t>
+  </si>
+  <si>
+    <t>P6SMB30CA</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>CR1220-2</t>
+  </si>
+  <si>
+    <t>BAT-SMD_CR1220-2</t>
+  </si>
+  <si>
+    <t>17.5mm</t>
+  </si>
+  <si>
+    <t>35.75mm</t>
+  </si>
+  <si>
+    <t>27.75mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ML1220</t>
+  </si>
+  <si>
+    <t>Q51</t>
+  </si>
+  <si>
+    <t>DMP3013SFV-7</t>
+  </si>
+  <si>
+    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
+  </si>
+  <si>
+    <t>15mm</t>
+  </si>
+  <si>
+    <t>40.5mm</t>
+  </si>
+  <si>
+    <t>14.025mm</t>
+  </si>
+  <si>
+    <t>39mm</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>17.25mm</t>
+  </si>
+  <si>
+    <t>23.25mm</t>
+  </si>
+  <si>
+    <t>16.55mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-14.75mm</t>
+  </si>
+  <si>
+    <t>42.25mm</t>
+  </si>
+  <si>
+    <t>41.817mm</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>-15mm</t>
+  </si>
+  <si>
+    <t>43.5mm</t>
+  </si>
+  <si>
+    <t>-15.433mm</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>-13.75mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>23.5mm</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>41.433mm</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>14.2mm</t>
+  </si>
+  <si>
+    <t>22.5mm</t>
+  </si>
+  <si>
+    <t>13.655mm</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>-13.25mm</t>
+  </si>
+  <si>
+    <t>2.75mm</t>
+  </si>
+  <si>
+    <t>-18.5mm</t>
+  </si>
+  <si>
+    <t>RA/AZ</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>-14mm</t>
+  </si>
+  <si>
+    <t>22.75mm</t>
+  </si>
+  <si>
+    <t>-14.545mm</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>1277AS-H-4R7M=P2_C237389</t>
+  </si>
+  <si>
+    <t>L1210</t>
+  </si>
+  <si>
+    <t>12.25mm</t>
+  </si>
+  <si>
+    <t>31.25mm</t>
+  </si>
+  <si>
+    <t>29.547mm</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>-11.45mm</t>
+  </si>
+  <si>
+    <t>-10.75mm</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>24.75mm</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Power_Switch</t>
+  </si>
+  <si>
+    <t>Power_switch</t>
+  </si>
+  <si>
+    <t>21.98mm</t>
+  </si>
+  <si>
+    <t>48.75mm</t>
+  </si>
+  <si>
+    <t>53.83mm</t>
+  </si>
+  <si>
+    <t>4US1R102M7RN</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC005-T25</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005-20A-1</t>
+  </si>
+  <si>
+    <t>9.75mm</t>
+  </si>
+  <si>
+    <t>47mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>44mm</t>
+  </si>
+  <si>
+    <t>L41</t>
+  </si>
+  <si>
+    <t>LQW18AN47NJ00D</t>
+  </si>
+  <si>
+    <t>IND-SMD_L1.6-W0.8-1</t>
+  </si>
+  <si>
+    <t>-5.75mm</t>
+  </si>
+  <si>
+    <t>37.75mm</t>
+  </si>
+  <si>
+    <t>37.05mm</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>HDR-TH_2P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>25.75mm</t>
+  </si>
+  <si>
+    <t>24.27mm</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>BAV99S,115</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>-19.9mm</t>
+  </si>
+  <si>
+    <t>45.048mm</t>
+  </si>
+  <si>
+    <t>-20.82mm</t>
+  </si>
+  <si>
+    <t>45.698mm</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>-14.625mm</t>
+  </si>
+  <si>
+    <t>45.375mm</t>
+  </si>
+  <si>
+    <t>-15.545mm</t>
+  </si>
+  <si>
+    <t>46.025mm</t>
+  </si>
+  <si>
+    <t>CN42</t>
+  </si>
+  <si>
+    <t>PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>AUDIO-SMD_PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>-7.5mm</t>
+  </si>
+  <si>
+    <t>-3.25mm</t>
+  </si>
+  <si>
+    <t>44.65mm</t>
+  </si>
+  <si>
+    <t>U52</t>
+  </si>
+  <si>
+    <t>ESP-01</t>
+  </si>
+  <si>
+    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
+  </si>
+  <si>
+    <t>3.75mm</t>
+  </si>
+  <si>
+    <t>48mm</t>
+  </si>
+  <si>
+    <t>2.48mm</t>
+  </si>
+  <si>
+    <t>44.19mm</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>MOT2</t>
+  </si>
+  <si>
+    <t>13.25mm</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>DEC/ALT</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>DZ254R-22-08-63</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>3.5mm</t>
+  </si>
+  <si>
+    <t>3.81mm</t>
+  </si>
+  <si>
+    <t>4.77mm</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>-10.25mm</t>
+  </si>
+  <si>
+    <t>31.5mm</t>
+  </si>
+  <si>
+    <t>30.747mm</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>-9mm</t>
+  </si>
+  <si>
+    <t>32.253mm</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>28.25mm</t>
+  </si>
+  <si>
+    <t>29.003mm</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>27.497mm</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>-12.75mm</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>-7.75mm</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>2.25mm</t>
+  </si>
+  <si>
+    <t>7.5mm</t>
+  </si>
+  <si>
+    <t>2.95mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>U56</t>
+  </si>
+  <si>
+    <t>XC6701D502PR-G</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>11mm</t>
+  </si>
+  <si>
+    <t>1.5mm</t>
+  </si>
+  <si>
+    <t>12.356mm</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>0603WAF5602T5E</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>26.997mm</t>
+  </si>
+  <si>
+    <t>56kΩ</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>-22.25mm</t>
+  </si>
+  <si>
+    <t>45mm</t>
+  </si>
+  <si>
+    <t>44.247mm</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>-17mm</t>
+  </si>
+  <si>
+    <t>45.753mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>-0.25mm</t>
+  </si>
+  <si>
+    <t>52.75mm</t>
+  </si>
+  <si>
+    <t>-0.253mm</t>
+  </si>
+  <si>
+    <t>53.549mm</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>8.73mm</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>CL10C101JB8NNNC</t>
+  </si>
+  <si>
+    <t>7.25mm</t>
+  </si>
+  <si>
+    <t>27.05mm</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>-11mm</t>
+  </si>
+  <si>
+    <t>21.8mm</t>
+  </si>
+  <si>
+    <t>-10mm</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>21.75mm</t>
+  </si>
+  <si>
+    <t>18.25mm</t>
+  </si>
+  <si>
+    <t>C96</t>
+  </si>
+  <si>
+    <t>CL21A226MAQNNNE</t>
+  </si>
+  <si>
+    <t>32mm</t>
+  </si>
+  <si>
+    <t>33.03mm</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C97</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603W</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD_WHITE</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>53.601mm</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>0603WAF3303T5E</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>39.25mm</t>
+  </si>
+  <si>
+    <t>40.003mm</t>
+  </si>
+  <si>
+    <t>330kΩ</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>EEEHAV101XAP</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
+  </si>
+  <si>
+    <t>-3.5mm</t>
+  </si>
+  <si>
+    <t>19.92mm</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>-23.5mm</t>
+  </si>
+  <si>
+    <t>-22.059mm</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>-5mm</t>
+  </si>
+  <si>
+    <t>-6.441mm</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>6.441mm</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>22.059mm</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>ANT-TH_BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>35.5mm</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>SMD1812P300SLR/24</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>16.5mm</t>
+  </si>
+  <si>
+    <t>29.195mm</t>
+  </si>
+  <si>
+    <t>Q52</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>36.5mm</t>
+  </si>
+  <si>
+    <t>14.5mm</t>
+  </si>
+  <si>
+    <t>37.475mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)_C88374</t>
+  </si>
+  <si>
+    <t>RF-SMD_FRF05002-JSS103M</t>
+  </si>
+  <si>
+    <t>36.512mm</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>23.75mm</t>
+  </si>
+  <si>
+    <t>-13.455mm</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>41.705mm</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>26mm</t>
+  </si>
+  <si>
+    <t>26.7mm</t>
+  </si>
+  <si>
+    <t>C95</t>
+  </si>
+  <si>
+    <t>9.5mm</t>
+  </si>
+  <si>
+    <t>29.25mm</t>
+  </si>
+  <si>
+    <t>8.955mm</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>0603WAF1003T5E</t>
+  </si>
+  <si>
+    <t>24mm</t>
+  </si>
+  <si>
+    <t>38.5mm</t>
+  </si>
+  <si>
+    <t>39.253mm</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>U40</t>
+  </si>
+  <si>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>-23mm</t>
+  </si>
+  <si>
+    <t>21.65mm</t>
+  </si>
+  <si>
+    <t>U41</t>
+  </si>
+  <si>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>37mm</t>
+  </si>
+  <si>
+    <t>5.811mm</t>
+  </si>
+  <si>
+    <t>32.6mm</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>SMTSO3030CTJ</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>28mm</t>
+  </si>
+  <si>
+    <t>3.602mm</t>
+  </si>
+  <si>
+    <t>26.35mm</t>
+  </si>
+  <si>
+    <t>Plot M.2</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>0603WAF1802T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>24.5mm</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C94</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>44.75mm</t>
+  </si>
+  <si>
+    <t>43.157mm</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>50mm</t>
+  </si>
+  <si>
+    <t>50.753mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
     <t>C25</t>
   </si>
   <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>14.2mm</t>
-  </si>
-  <si>
     <t>21.5mm</t>
   </si>
   <si>
     <t>14.745mm</t>
   </si>
   <si>
-    <t>1uF 6V3</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>-14mm</t>
-  </si>
-  <si>
-    <t>21.75mm</t>
-  </si>
-  <si>
-    <t>-13.455mm</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>P6SMB30CA_C80384</t>
-  </si>
-  <si>
-    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
-  </si>
-  <si>
-    <t>19.5mm</t>
-  </si>
-  <si>
-    <t>44.496mm</t>
-  </si>
-  <si>
-    <t>44.5mm</t>
-  </si>
-  <si>
-    <t>41.9mm</t>
-  </si>
-  <si>
-    <t>P6SMB30CA</t>
-  </si>
-  <si>
-    <t>B51</t>
-  </si>
-  <si>
-    <t>CR1220-2</t>
-  </si>
-  <si>
-    <t>BAT-SMD_CR1220-2</t>
-  </si>
-  <si>
-    <t>17.5mm</t>
-  </si>
-  <si>
-    <t>35.75mm</t>
-  </si>
-  <si>
-    <t>27.75mm</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>ML1220</t>
-  </si>
-  <si>
-    <t>Q51</t>
-  </si>
-  <si>
-    <t>DMP3013SFV-7</t>
-  </si>
-  <si>
-    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
-  </si>
-  <si>
-    <t>15mm</t>
-  </si>
-  <si>
-    <t>40.5mm</t>
-  </si>
-  <si>
-    <t>14.025mm</t>
-  </si>
-  <si>
-    <t>39mm</t>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>-22.75mm</t>
+  </si>
+  <si>
+    <t>7.75mm</t>
+  </si>
+  <si>
+    <t>-22.05mm</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>5.75mm</t>
+  </si>
+  <si>
+    <t>6.45mm</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>27.25mm</t>
+  </si>
+  <si>
+    <t>17.53mm</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>-21.5mm</t>
+  </si>
+  <si>
+    <t>19.75mm</t>
+  </si>
+  <si>
+    <t>-19.907mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>-5.5mm</t>
+  </si>
+  <si>
+    <t>21.657mm</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>1.907mm</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>19.907mm</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>16.75mm</t>
+  </si>
+  <si>
+    <t>25.25mm</t>
+  </si>
+  <si>
+    <t>18.343mm</t>
   </si>
   <si>
     <t>D52</t>
@@ -250,309 +1231,57 @@
     <t>37.365mm</t>
   </si>
   <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>16.5mm</t>
-  </si>
-  <si>
-    <t>27.25mm</t>
-  </si>
-  <si>
-    <t>1uF 35V</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>5.75mm</t>
-  </si>
-  <si>
-    <t>7.75mm</t>
-  </si>
-  <si>
-    <t>6.45mm</t>
-  </si>
-  <si>
-    <t>470nF 25V</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>-22.75mm</t>
-  </si>
-  <si>
-    <t>-22.05mm</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>17.25mm</t>
-  </si>
-  <si>
-    <t>23.25mm</t>
-  </si>
-  <si>
-    <t>16.55mm</t>
-  </si>
-  <si>
-    <t>100nF 50V</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>16.75mm</t>
-  </si>
-  <si>
-    <t>25.25mm</t>
-  </si>
-  <si>
-    <t>18.343mm</t>
-  </si>
-  <si>
-    <t>10uF 50V</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>5.5mm</t>
-  </si>
-  <si>
-    <t>21.657mm</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>19.75mm</t>
-  </si>
-  <si>
-    <t>19.907mm</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>-21.5mm</t>
-  </si>
-  <si>
-    <t>-23.093mm</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>-5.5mm</t>
-  </si>
-  <si>
-    <t>24.843mm</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>-14.75mm</t>
-  </si>
-  <si>
-    <t>42.25mm</t>
-  </si>
-  <si>
-    <t>42.683mm</t>
-  </si>
-  <si>
-    <t>21R5</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>-15mm</t>
-  </si>
-  <si>
-    <t>43.5mm</t>
-  </si>
-  <si>
-    <t>-14.567mm</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>-13.75mm</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>23.5mm</t>
-  </si>
-  <si>
-    <t>41mm</t>
-  </si>
-  <si>
-    <t>41.433mm</t>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>-20.097mm</t>
+  </si>
+  <si>
+    <t>-19.343mm</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>-7.903mm</t>
+  </si>
+  <si>
+    <t>-8.656mm</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>8.403mm</t>
+  </si>
+  <si>
+    <t>9.156mm</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>20.597mm</t>
+  </si>
+  <si>
+    <t>19.843mm</t>
   </si>
   <si>
     <t>R57</t>
   </si>
   <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>-13.25mm</t>
-  </si>
-  <si>
     <t>38.997mm</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>8.403mm</t>
-  </si>
-  <si>
-    <t>9.156mm</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>20.597mm</t>
-  </si>
-  <si>
-    <t>19.843mm</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>-20.097mm</t>
-  </si>
-  <si>
-    <t>-19.343mm</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>-7.903mm</t>
-  </si>
-  <si>
-    <t>-8.656mm</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>22.5mm</t>
-  </si>
-  <si>
-    <t>13.655mm</t>
-  </si>
-  <si>
-    <t>100nF 16V</t>
-  </si>
-  <si>
-    <t>U41</t>
-  </si>
-  <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>37mm</t>
-  </si>
-  <si>
-    <t>5.811mm</t>
-  </si>
-  <si>
-    <t>32.6mm</t>
-  </si>
-  <si>
-    <t>MOT1</t>
-  </si>
-  <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>2.75mm</t>
-  </si>
-  <si>
-    <t>-18.5mm</t>
-  </si>
-  <si>
-    <t>RA/AZ</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>22.75mm</t>
-  </si>
-  <si>
-    <t>-14.545mm</t>
-  </si>
-  <si>
     <t>U55</t>
   </si>
   <si>
@@ -572,744 +1301,6 @@
   </si>
   <si>
     <t>25.15mm</t>
-  </si>
-  <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>1277AS-H-4R7M=P2_C237389</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>12.25mm</t>
-  </si>
-  <si>
-    <t>31.25mm</t>
-  </si>
-  <si>
-    <t>29.547mm</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>-11.45mm</t>
-  </si>
-  <si>
-    <t>-12.15mm</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>24.75mm</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Power_Switch</t>
-  </si>
-  <si>
-    <t>Power_switch</t>
-  </si>
-  <si>
-    <t>21.98mm</t>
-  </si>
-  <si>
-    <t>48.75mm</t>
-  </si>
-  <si>
-    <t>53.83mm</t>
-  </si>
-  <si>
-    <t>4US1R102M7RN</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>DC005-T25</t>
-  </si>
-  <si>
-    <t>DC-IN-TH_DC-005-20A-1</t>
-  </si>
-  <si>
-    <t>9.75mm</t>
-  </si>
-  <si>
-    <t>47mm</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>44mm</t>
-  </si>
-  <si>
-    <t>L41</t>
-  </si>
-  <si>
-    <t>LQW18AN47NJ00D</t>
-  </si>
-  <si>
-    <t>IND-SMD_L1.6-W0.8-1</t>
-  </si>
-  <si>
-    <t>-5.75mm</t>
-  </si>
-  <si>
-    <t>37.75mm</t>
-  </si>
-  <si>
-    <t>37.05mm</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>C94</t>
-  </si>
-  <si>
-    <t>-0.5mm</t>
-  </si>
-  <si>
-    <t>44.75mm</t>
-  </si>
-  <si>
-    <t>43.157mm</t>
-  </si>
-  <si>
-    <t>AUX</t>
-  </si>
-  <si>
-    <t>HEAD2</t>
-  </si>
-  <si>
-    <t>HDR-TH_2P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>23mm</t>
-  </si>
-  <si>
-    <t>25.75mm</t>
-  </si>
-  <si>
-    <t>24.27mm</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>BAV99S,115</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>-19.9mm</t>
-  </si>
-  <si>
-    <t>45.048mm</t>
-  </si>
-  <si>
-    <t>-20.82mm</t>
-  </si>
-  <si>
-    <t>45.698mm</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>-14.625mm</t>
-  </si>
-  <si>
-    <t>45.375mm</t>
-  </si>
-  <si>
-    <t>-15.545mm</t>
-  </si>
-  <si>
-    <t>46.025mm</t>
-  </si>
-  <si>
-    <t>CN42</t>
-  </si>
-  <si>
-    <t>PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>AUDIO-SMD_PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>-7.5mm</t>
-  </si>
-  <si>
-    <t>-3.25mm</t>
-  </si>
-  <si>
-    <t>44.65mm</t>
-  </si>
-  <si>
-    <t>U52</t>
-  </si>
-  <si>
-    <t>ESP-01</t>
-  </si>
-  <si>
-    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
-  </si>
-  <si>
-    <t>3.75mm</t>
-  </si>
-  <si>
-    <t>48mm</t>
-  </si>
-  <si>
-    <t>2.48mm</t>
-  </si>
-  <si>
-    <t>44.19mm</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>MOT2</t>
-  </si>
-  <si>
-    <t>13.25mm</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>DEC/ALT</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>18mm</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>50.753mm</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>DZ254R-22-08-63</t>
-  </si>
-  <si>
-    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>3.5mm</t>
-  </si>
-  <si>
-    <t>3.81mm</t>
-  </si>
-  <si>
-    <t>4.77mm</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>-10.25mm</t>
-  </si>
-  <si>
-    <t>31.5mm</t>
-  </si>
-  <si>
-    <t>30.747mm</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>-9mm</t>
-  </si>
-  <si>
-    <t>32.253mm</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>28.25mm</t>
-  </si>
-  <si>
-    <t>29.003mm</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>27.497mm</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>-12.75mm</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>-7.75mm</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>2.25mm</t>
-  </si>
-  <si>
-    <t>7.5mm</t>
-  </si>
-  <si>
-    <t>2.95mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U56</t>
-  </si>
-  <si>
-    <t>XC6701D502PR-G</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>1.5mm</t>
-  </si>
-  <si>
-    <t>12.356mm</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>7.25mm</t>
-  </si>
-  <si>
-    <t>24.5mm</t>
-  </si>
-  <si>
-    <t>23.747mm</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>6.75mm</t>
-  </si>
-  <si>
-    <t>27mm</t>
-  </si>
-  <si>
-    <t>26.247mm</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>-22.25mm</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>44.247mm</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>-17mm</t>
-  </si>
-  <si>
-    <t>45.753mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>-0.25mm</t>
-  </si>
-  <si>
-    <t>52.75mm</t>
-  </si>
-  <si>
-    <t>-0.253mm</t>
-  </si>
-  <si>
-    <t>53.549mm</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>8.73mm</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>CL10C101JB8NNNC</t>
-  </si>
-  <si>
-    <t>26.3mm</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>-11mm</t>
-  </si>
-  <si>
-    <t>21.8mm</t>
-  </si>
-  <si>
-    <t>-10mm</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>18.25mm</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>32mm</t>
-  </si>
-  <si>
-    <t>33.03mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>KT-0603W</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD_WHITE</t>
-  </si>
-  <si>
-    <t>53.601mm</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>39.25mm</t>
-  </si>
-  <si>
-    <t>40.003mm</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>EEEHAV101XAP</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
-  </si>
-  <si>
-    <t>-3.5mm</t>
-  </si>
-  <si>
-    <t>19.92mm</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>-23.5mm</t>
-  </si>
-  <si>
-    <t>-22.059mm</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>-5mm</t>
-  </si>
-  <si>
-    <t>-6.441mm</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>6.441mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>22.059mm</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>ANT-TH_BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>35.5mm</t>
-  </si>
-  <si>
-    <t>F51</t>
-  </si>
-  <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>29.195mm</t>
-  </si>
-  <si>
-    <t>Q52</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>36.5mm</t>
-  </si>
-  <si>
-    <t>14.5mm</t>
-  </si>
-  <si>
-    <t>37.475mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)_C88374</t>
-  </si>
-  <si>
-    <t>RF-SMD_FRF05002-JSS103M</t>
-  </si>
-  <si>
-    <t>36.512mm</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>23.75mm</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>41.705mm</t>
-  </si>
-  <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>26mm</t>
-  </si>
-  <si>
-    <t>26.7mm</t>
-  </si>
-  <si>
-    <t>C95</t>
-  </si>
-  <si>
-    <t>9.5mm</t>
-  </si>
-  <si>
-    <t>29.25mm</t>
-  </si>
-  <si>
-    <t>8.955mm</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>38.5mm</t>
-  </si>
-  <si>
-    <t>39.253mm</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>SMTSO3030CTJ</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>28mm</t>
-  </si>
-  <si>
-    <t>-0.602mm</t>
-  </si>
-  <si>
-    <t>29.65mm</t>
-  </si>
-  <si>
-    <t>Plot M.2</t>
-  </si>
-  <si>
-    <t>U40</t>
-  </si>
-  <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>-23mm</t>
-  </si>
-  <si>
-    <t>21.65mm</t>
   </si>
 </sst>
 </file>
@@ -1935,13 +1926,13 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1950,262 +1941,262 @@
         <v>21</v>
       </c>
       <c r="L6">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
         <v>57</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="L9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11">
-        <v>90</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
       <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -2214,7 +2205,7 @@
         <v>21</v>
       </c>
       <c r="L12">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -2228,29 +2219,29 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>89</v>
-      </c>
       <c r="J13">
         <v>2</v>
       </c>
@@ -2258,42 +2249,42 @@
         <v>21</v>
       </c>
       <c r="L13">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
       </c>
       <c r="H14" t="s">
         <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2302,13 +2293,13 @@
         <v>21</v>
       </c>
       <c r="L14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2319,28 +2310,28 @@
         <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
         <v>98</v>
       </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
         <v>99</v>
       </c>
-      <c r="I15" t="s">
-        <v>98</v>
-      </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2349,40 +2340,40 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
-      </c>
       <c r="J16">
         <v>2</v>
       </c>
@@ -2390,42 +2381,42 @@
         <v>21</v>
       </c>
       <c r="L16">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
         <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
         <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2440,36 +2431,36 @@
         <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2478,42 +2469,42 @@
         <v>21</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s">
         <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2522,89 +2513,89 @@
         <v>21</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M19" t="s">
         <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
       </c>
       <c r="L20">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -2613,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
         <v>126</v>
@@ -2621,31 +2612,31 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2654,42 +2645,42 @@
         <v>21</v>
       </c>
       <c r="L22">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2698,133 +2689,133 @@
         <v>21</v>
       </c>
       <c r="L23">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -2836,168 +2827,168 @@
         <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
       </c>
       <c r="L28">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3006,45 +2997,45 @@
         <v>21</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="I31" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="J31">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -3056,80 +3047,80 @@
         <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3138,83 +3129,83 @@
         <v>21</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
       <c r="L34">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
         <v>22</v>
       </c>
       <c r="N34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
         <v>192</v>
@@ -3226,7 +3217,7 @@
         <v>21</v>
       </c>
       <c r="L35">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s">
         <v>22</v>
@@ -3237,32 +3228,32 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
         <v>195</v>
       </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
       <c r="F36" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" t="s">
         <v>195</v>
       </c>
-      <c r="G36" t="s">
-        <v>98</v>
-      </c>
       <c r="H36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" t="s">
         <v>196</v>
       </c>
-      <c r="I36" t="s">
-        <v>98</v>
-      </c>
       <c r="J36">
         <v>2</v>
       </c>
@@ -3270,43 +3261,43 @@
         <v>21</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s">
         <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" t="s">
         <v>198</v>
       </c>
-      <c r="E37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" t="s">
-        <v>138</v>
-      </c>
       <c r="J37">
         <v>2</v>
       </c>
@@ -3314,45 +3305,45 @@
         <v>21</v>
       </c>
       <c r="L37">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -3361,39 +3352,39 @@
         <v>180</v>
       </c>
       <c r="M38" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -3402,42 +3393,42 @@
         <v>21</v>
       </c>
       <c r="L39">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3446,42 +3437,42 @@
         <v>21</v>
       </c>
       <c r="L40">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s">
         <v>22</v>
       </c>
       <c r="N40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3496,36 +3487,36 @@
         <v>22</v>
       </c>
       <c r="N41" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" t="s">
         <v>225</v>
       </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s">
         <v>229</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -3534,89 +3525,89 @@
         <v>21</v>
       </c>
       <c r="L42">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <v>270</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
         <v>232</v>
-      </c>
-      <c r="D43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" t="s">
-        <v>234</v>
-      </c>
-      <c r="H43" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" t="s">
-        <v>236</v>
-      </c>
-      <c r="J43">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
         <v>239</v>
       </c>
-      <c r="F44" t="s">
-        <v>238</v>
-      </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
         <v>240</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -3625,86 +3616,86 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
         <v>242</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
         <v>243</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" t="s">
         <v>244</v>
       </c>
-      <c r="D45" t="s">
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45">
+        <v>90</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
         <v>245</v>
-      </c>
-      <c r="E45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" t="s">
-        <v>245</v>
-      </c>
-      <c r="G45" t="s">
-        <v>203</v>
-      </c>
-      <c r="H45" t="s">
-        <v>246</v>
-      </c>
-      <c r="I45" t="s">
-        <v>247</v>
-      </c>
-      <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45">
-        <v>180</v>
-      </c>
-      <c r="M45" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" t="s">
         <v>248</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>249</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>250</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" t="s">
+        <v>250</v>
+      </c>
+      <c r="H46" t="s">
         <v>251</v>
       </c>
-      <c r="E46" t="s">
-        <v>252</v>
-      </c>
-      <c r="F46" t="s">
-        <v>251</v>
-      </c>
-      <c r="G46" t="s">
-        <v>252</v>
-      </c>
-      <c r="H46" t="s">
-        <v>253</v>
-      </c>
       <c r="I46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -3713,83 +3704,83 @@
         <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I47" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -3804,80 +3795,80 @@
         <v>22</v>
       </c>
       <c r="N48" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H49" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I49" t="s">
+        <v>259</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49">
         <v>270</v>
       </c>
-      <c r="J49">
-        <v>8</v>
-      </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49">
-        <v>180</v>
-      </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N49" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3892,36 +3883,36 @@
         <v>22</v>
       </c>
       <c r="N50" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H51" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I51" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3936,36 +3927,36 @@
         <v>22</v>
       </c>
       <c r="N51" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="G52" t="s">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -3980,80 +3971,80 @@
         <v>22</v>
       </c>
       <c r="N52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53">
+        <v>270</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
         <v>278</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" t="s">
-        <v>283</v>
-      </c>
-      <c r="F53" t="s">
-        <v>273</v>
-      </c>
-      <c r="G53" t="s">
-        <v>283</v>
-      </c>
-      <c r="H53" t="s">
-        <v>273</v>
-      </c>
-      <c r="I53" t="s">
-        <v>286</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53">
-        <v>90</v>
-      </c>
-      <c r="M53" t="s">
-        <v>22</v>
-      </c>
-      <c r="N53" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I54" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -4062,42 +4053,42 @@
         <v>21</v>
       </c>
       <c r="L54">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I55" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -4106,42 +4097,42 @@
         <v>21</v>
       </c>
       <c r="L55">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
       </c>
       <c r="N55" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" t="s">
         <v>290</v>
       </c>
-      <c r="B56" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>279</v>
-      </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F56" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G56" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="H56" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I56" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -4150,42 +4141,42 @@
         <v>21</v>
       </c>
       <c r="L56">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="H57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -4194,89 +4185,89 @@
         <v>21</v>
       </c>
       <c r="L57">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" t="s">
+        <v>297</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58" t="s">
+        <v>297</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N58" t="s">
         <v>295</v>
-      </c>
-      <c r="E58" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" t="s">
-        <v>296</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58">
-        <v>180</v>
-      </c>
-      <c r="M58" t="s">
-        <v>22</v>
-      </c>
-      <c r="N58" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" t="s">
         <v>299</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>300</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>301</v>
       </c>
-      <c r="D59" t="s">
-        <v>267</v>
-      </c>
       <c r="E59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" t="s">
+        <v>301</v>
+      </c>
+      <c r="I59" t="s">
         <v>302</v>
       </c>
-      <c r="F59" t="s">
-        <v>267</v>
-      </c>
-      <c r="G59" t="s">
-        <v>302</v>
-      </c>
-      <c r="H59" t="s">
-        <v>303</v>
-      </c>
-      <c r="I59" t="s">
-        <v>304</v>
-      </c>
       <c r="J59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -4288,124 +4279,124 @@
         <v>22</v>
       </c>
       <c r="N59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" t="s">
         <v>305</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" t="s">
+        <v>305</v>
+      </c>
+      <c r="H60" t="s">
         <v>306</v>
       </c>
-      <c r="C60" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="I60" t="s">
         <v>307</v>
       </c>
-      <c r="E60" t="s">
-        <v>308</v>
-      </c>
-      <c r="F60" t="s">
-        <v>307</v>
-      </c>
-      <c r="G60" t="s">
-        <v>308</v>
-      </c>
-      <c r="H60" t="s">
-        <v>307</v>
-      </c>
-      <c r="I60" t="s">
-        <v>309</v>
-      </c>
       <c r="J60">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
       <c r="L60">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s">
         <v>22</v>
       </c>
       <c r="N60" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" t="s">
         <v>311</v>
       </c>
-      <c r="B61" t="s">
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61">
+        <v>180</v>
+      </c>
+      <c r="M61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N61" t="s">
         <v>312</v>
-      </c>
-      <c r="C61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" t="s">
-        <v>313</v>
-      </c>
-      <c r="G61" t="s">
-        <v>314</v>
-      </c>
-      <c r="H61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I61" t="s">
-        <v>315</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61">
-        <v>90</v>
-      </c>
-      <c r="M61" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F62" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="G62" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -4414,42 +4405,42 @@
         <v>21</v>
       </c>
       <c r="L62">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M62" t="s">
         <v>22</v>
       </c>
       <c r="N62" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="I63" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -4458,42 +4449,42 @@
         <v>21</v>
       </c>
       <c r="L63">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
       </c>
       <c r="N63" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H64" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="I64" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -4508,36 +4499,36 @@
         <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G65" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="H65" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -4549,39 +4540,39 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N65" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="G66" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="I66" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -4590,174 +4581,174 @@
         <v>21</v>
       </c>
       <c r="L66">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
       </c>
       <c r="N66" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="H67" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
       </c>
       <c r="L67">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M67" t="s">
         <v>22</v>
       </c>
       <c r="N67" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C68" t="s">
+        <v>338</v>
+      </c>
+      <c r="D68" t="s">
+        <v>339</v>
+      </c>
+      <c r="E68" t="s">
+        <v>340</v>
+      </c>
+      <c r="F68" t="s">
+        <v>339</v>
+      </c>
+      <c r="G68" t="s">
+        <v>340</v>
+      </c>
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" t="s">
-        <v>97</v>
-      </c>
-      <c r="G68" t="s">
-        <v>49</v>
-      </c>
-      <c r="H68" t="s">
-        <v>347</v>
-      </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
         <v>21</v>
       </c>
       <c r="L68">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M68" t="s">
         <v>22</v>
       </c>
       <c r="N68" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" t="s">
+        <v>346</v>
+      </c>
+      <c r="H69" t="s">
+        <v>347</v>
+      </c>
+      <c r="I69" t="s">
         <v>348</v>
       </c>
-      <c r="B69" t="s">
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" t="s">
         <v>349</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" t="s">
-        <v>350</v>
-      </c>
-      <c r="F69" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" t="s">
-        <v>350</v>
-      </c>
-      <c r="H69" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" t="s">
-        <v>351</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
-      </c>
-      <c r="K69" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69">
-        <v>270</v>
-      </c>
-      <c r="M69" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B70" t="s">
+        <v>351</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" t="s">
         <v>353</v>
       </c>
-      <c r="B70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" t="s">
-        <v>334</v>
-      </c>
-      <c r="E70" t="s">
-        <v>350</v>
-      </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H70" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="I70" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -4766,57 +4757,57 @@
         <v>21</v>
       </c>
       <c r="L70">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
       </c>
       <c r="N70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C71" t="s">
-        <v>356</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="F71" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="G71" t="s">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="I71" t="s">
+        <v>117</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71">
+        <v>180</v>
+      </c>
+      <c r="M71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" t="s">
         <v>357</v>
-      </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71">
-        <v>90</v>
-      </c>
-      <c r="M71" t="s">
-        <v>22</v>
-      </c>
-      <c r="N71" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4827,25 +4818,25 @@
         <v>359</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" t="s">
         <v>361</v>
       </c>
-      <c r="F72" t="s">
-        <v>360</v>
-      </c>
       <c r="G72" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72" t="s">
         <v>361</v>
       </c>
-      <c r="H72" t="s">
-        <v>360</v>
-      </c>
       <c r="I72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -4854,13 +4845,13 @@
         <v>21</v>
       </c>
       <c r="L72">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
         <v>22</v>
       </c>
       <c r="N72" t="s">
-        <v>363</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -4871,25 +4862,25 @@
         <v>365</v>
       </c>
       <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" t="s">
         <v>366</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" t="s">
+        <v>366</v>
+      </c>
+      <c r="H73" t="s">
+        <v>265</v>
+      </c>
+      <c r="I73" t="s">
         <v>367</v>
-      </c>
-      <c r="E73" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" t="s">
-        <v>367</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" t="s">
-        <v>367</v>
-      </c>
-      <c r="I73" t="s">
-        <v>368</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -4904,36 +4895,36 @@
         <v>22</v>
       </c>
       <c r="N73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="F74" t="s">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="H74" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="I74" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -4942,42 +4933,42 @@
         <v>21</v>
       </c>
       <c r="L74">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s">
         <v>22</v>
       </c>
       <c r="N74" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" t="s">
+        <v>356</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" t="s">
         <v>371</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
+        <v>371</v>
+      </c>
+      <c r="H75" t="s">
         <v>372</v>
       </c>
-      <c r="C75" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" t="s">
-        <v>374</v>
-      </c>
-      <c r="E75" t="s">
-        <v>334</v>
-      </c>
-      <c r="F75" t="s">
-        <v>374</v>
-      </c>
-      <c r="G75" t="s">
-        <v>334</v>
-      </c>
-      <c r="H75" t="s">
-        <v>375</v>
-      </c>
       <c r="I75" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -4992,80 +4983,80 @@
         <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" t="s">
+        <v>376</v>
+      </c>
+      <c r="H76" t="s">
         <v>377</v>
       </c>
-      <c r="B76" t="s">
-        <v>372</v>
-      </c>
-      <c r="C76" t="s">
-        <v>373</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="I76" t="s">
+        <v>376</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76">
+        <v>180</v>
+      </c>
+      <c r="M76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" t="s">
         <v>378</v>
-      </c>
-      <c r="E76" t="s">
-        <v>334</v>
-      </c>
-      <c r="F76" t="s">
-        <v>378</v>
-      </c>
-      <c r="G76" t="s">
-        <v>334</v>
-      </c>
-      <c r="H76" t="s">
-        <v>379</v>
-      </c>
-      <c r="I76" t="s">
-        <v>334</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>22</v>
-      </c>
-      <c r="N76" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>379</v>
+      </c>
+      <c r="B77" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
         <v>380</v>
       </c>
-      <c r="B77" t="s">
-        <v>372</v>
-      </c>
-      <c r="C77" t="s">
-        <v>373</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77" t="s">
+        <v>380</v>
+      </c>
+      <c r="G77" t="s">
+        <v>376</v>
+      </c>
+      <c r="H77" t="s">
         <v>381</v>
       </c>
-      <c r="E77" t="s">
-        <v>334</v>
-      </c>
-      <c r="F77" t="s">
-        <v>381</v>
-      </c>
-      <c r="G77" t="s">
-        <v>334</v>
-      </c>
-      <c r="H77" t="s">
-        <v>382</v>
-      </c>
       <c r="I77" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -5080,37 +5071,37 @@
         <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" t="s">
         <v>383</v>
       </c>
-      <c r="B78" t="s">
-        <v>372</v>
-      </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="E78" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="F78" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="G78" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="H78" t="s">
+        <v>385</v>
+      </c>
+      <c r="I78" t="s">
         <v>384</v>
       </c>
-      <c r="I78" t="s">
-        <v>334</v>
-      </c>
       <c r="J78">
         <v>2</v>
       </c>
@@ -5118,83 +5109,83 @@
         <v>21</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M78" t="s">
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="C79" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" t="s">
         <v>387</v>
-      </c>
-      <c r="D79" t="s">
-        <v>342</v>
       </c>
       <c r="E79" t="s">
         <v>388</v>
       </c>
       <c r="F79" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="G79" t="s">
         <v>388</v>
       </c>
       <c r="H79" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="I79" t="s">
         <v>388</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M79" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C80" t="s">
+        <v>360</v>
+      </c>
+      <c r="D80" t="s">
         <v>391</v>
       </c>
-      <c r="D80" t="s">
-        <v>82</v>
-      </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="G80" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="I80" t="s">
         <v>392</v>
@@ -5212,7 +5203,7 @@
         <v>22</v>
       </c>
       <c r="N80" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5220,116 +5211,116 @@
         <v>393</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" t="s">
         <v>394</v>
       </c>
-      <c r="E81" t="s">
-        <v>395</v>
-      </c>
-      <c r="F81" t="s">
-        <v>394</v>
-      </c>
-      <c r="G81" t="s">
-        <v>395</v>
-      </c>
-      <c r="H81" t="s">
-        <v>396</v>
-      </c>
       <c r="I81" t="s">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="J81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
       <c r="L81">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M81" t="s">
         <v>22</v>
       </c>
       <c r="N81" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D82" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="F82" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="H82" t="s">
-        <v>245</v>
+        <v>396</v>
       </c>
       <c r="I82" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
       <c r="L82">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M82" t="s">
         <v>22</v>
       </c>
       <c r="N82" t="s">
-        <v>402</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="G83" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H83" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="I83" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -5344,36 +5335,36 @@
         <v>22</v>
       </c>
       <c r="N83" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" t="s">
+        <v>402</v>
+      </c>
+      <c r="C84" t="s">
+        <v>403</v>
+      </c>
+      <c r="D84" t="s">
+        <v>404</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" t="s">
+        <v>404</v>
+      </c>
+      <c r="G84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" t="s">
+        <v>404</v>
+      </c>
+      <c r="I84" t="s">
         <v>405</v>
-      </c>
-      <c r="B84" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" t="s">
-        <v>288</v>
-      </c>
-      <c r="G84" t="s">
-        <v>124</v>
-      </c>
-      <c r="H84" t="s">
-        <v>288</v>
-      </c>
-      <c r="I84" t="s">
-        <v>406</v>
       </c>
       <c r="J84">
         <v>2</v>
@@ -5388,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="N84" t="s">
-        <v>163</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5396,28 +5387,28 @@
         <v>407</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>409</v>
       </c>
       <c r="G85" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="I85" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="J85">
         <v>2</v>
@@ -5426,42 +5417,42 @@
         <v>21</v>
       </c>
       <c r="L85">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E86" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="F86" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G86" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="H86" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I86" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -5476,36 +5467,36 @@
         <v>22</v>
       </c>
       <c r="N86" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="G87" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="H87" t="s">
-        <v>50</v>
+        <v>417</v>
       </c>
       <c r="I87" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="J87">
         <v>2</v>
@@ -5520,36 +5511,36 @@
         <v>22</v>
       </c>
       <c r="N87" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E88" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G88" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="H88" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I88" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="J88">
         <v>2</v>
@@ -5558,13 +5549,13 @@
         <v>21</v>
       </c>
       <c r="L88">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M88" t="s">
         <v>22</v>
       </c>
       <c r="N88" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5572,75 +5563,75 @@
         <v>421</v>
       </c>
       <c r="B89" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I89" t="s">
         <v>422</v>
       </c>
-      <c r="C89" t="s">
-        <v>423</v>
-      </c>
-      <c r="D89" t="s">
-        <v>303</v>
-      </c>
-      <c r="E89" t="s">
-        <v>424</v>
-      </c>
-      <c r="F89" t="s">
-        <v>303</v>
-      </c>
-      <c r="G89" t="s">
-        <v>424</v>
-      </c>
-      <c r="H89" t="s">
-        <v>425</v>
-      </c>
-      <c r="I89" t="s">
-        <v>426</v>
-      </c>
       <c r="J89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M89" t="s">
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" t="s">
+        <v>424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>425</v>
+      </c>
+      <c r="D90" t="s">
+        <v>426</v>
+      </c>
+      <c r="E90" t="s">
+        <v>427</v>
+      </c>
+      <c r="F90" t="s">
+        <v>426</v>
+      </c>
+      <c r="G90" t="s">
+        <v>427</v>
+      </c>
+      <c r="H90" t="s">
         <v>428</v>
       </c>
-      <c r="B90" t="s">
+      <c r="I90" t="s">
         <v>429</v>
       </c>
-      <c r="C90" t="s">
-        <v>430</v>
-      </c>
-      <c r="D90" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" t="s">
-        <v>350</v>
-      </c>
-      <c r="F90" t="s">
-        <v>175</v>
-      </c>
-      <c r="G90" t="s">
-        <v>350</v>
-      </c>
-      <c r="H90" t="s">
-        <v>431</v>
-      </c>
-      <c r="I90" t="s">
-        <v>432</v>
-      </c>
       <c r="J90">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
@@ -5652,7 +5643,7 @@
         <v>22</v>
       </c>
       <c r="N90" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
@@ -91,7 +91,7 @@
     <t>-20.25mm</t>
   </si>
   <si>
-    <t>CN41</t>
+    <t>CN2</t>
   </si>
   <si>
     <t>USB_C</t>
@@ -115,7 +115,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>D53</t>
+    <t>D3</t>
   </si>
   <si>
     <t>RB751V40T1G</t>
@@ -133,7 +133,7 @@
     <t>38.578mm</t>
   </si>
   <si>
-    <t>D51</t>
+    <t>D4</t>
   </si>
   <si>
     <t>P6SMB30CA_C80384</t>
@@ -157,7 +157,7 @@
     <t>P6SMB30CA</t>
   </si>
   <si>
-    <t>B51</t>
+    <t>B1</t>
   </si>
   <si>
     <t>CR1220-2</t>
@@ -181,7 +181,7 @@
     <t>ML1220</t>
   </si>
   <si>
-    <t>Q51</t>
+    <t>Q1</t>
   </si>
   <si>
     <t>DMP3013SFV-7</t>
@@ -202,1063 +202,1063 @@
     <t>39mm</t>
   </si>
   <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>17.25mm</t>
+  </si>
+  <si>
+    <t>23.25mm</t>
+  </si>
+  <si>
+    <t>16.55mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-14.75mm</t>
+  </si>
+  <si>
+    <t>42.25mm</t>
+  </si>
+  <si>
+    <t>41.817mm</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>-15mm</t>
+  </si>
+  <si>
+    <t>43.5mm</t>
+  </si>
+  <si>
+    <t>-15.433mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>-13.75mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>23.5mm</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>41.433mm</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>14.2mm</t>
+  </si>
+  <si>
+    <t>22.5mm</t>
+  </si>
+  <si>
+    <t>13.655mm</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>-13.25mm</t>
+  </si>
+  <si>
+    <t>2.75mm</t>
+  </si>
+  <si>
+    <t>-18.5mm</t>
+  </si>
+  <si>
+    <t>RA/AZ</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>-14mm</t>
+  </si>
+  <si>
+    <t>22.75mm</t>
+  </si>
+  <si>
+    <t>-14.545mm</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>1277AS-H-4R7M=P2_C237389</t>
+  </si>
+  <si>
+    <t>L1210</t>
+  </si>
+  <si>
+    <t>12.25mm</t>
+  </si>
+  <si>
+    <t>31.25mm</t>
+  </si>
+  <si>
+    <t>29.547mm</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>-11.45mm</t>
+  </si>
+  <si>
+    <t>-10.75mm</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>24.75mm</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Power_Switch</t>
+  </si>
+  <si>
+    <t>Power_switch</t>
+  </si>
+  <si>
+    <t>21.98mm</t>
+  </si>
+  <si>
+    <t>48.75mm</t>
+  </si>
+  <si>
+    <t>53.83mm</t>
+  </si>
+  <si>
+    <t>4US1R102M7RN</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC005-T25</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005-20A-1</t>
+  </si>
+  <si>
+    <t>9.75mm</t>
+  </si>
+  <si>
+    <t>47mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>44mm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LQW18AN47NJ00D</t>
+  </si>
+  <si>
+    <t>IND-SMD_L1.6-W0.8-1</t>
+  </si>
+  <si>
+    <t>-5.75mm</t>
+  </si>
+  <si>
+    <t>37.75mm</t>
+  </si>
+  <si>
+    <t>37.05mm</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>HDR-TH_2P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>25.75mm</t>
+  </si>
+  <si>
+    <t>24.27mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BAV99S,115</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>-19.9mm</t>
+  </si>
+  <si>
+    <t>45.048mm</t>
+  </si>
+  <si>
+    <t>-20.82mm</t>
+  </si>
+  <si>
+    <t>45.698mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>-14.625mm</t>
+  </si>
+  <si>
+    <t>45.375mm</t>
+  </si>
+  <si>
+    <t>-15.545mm</t>
+  </si>
+  <si>
+    <t>46.025mm</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>AUDIO-SMD_PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>-7.5mm</t>
+  </si>
+  <si>
+    <t>-3.25mm</t>
+  </si>
+  <si>
+    <t>44.65mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>ESP-01</t>
+  </si>
+  <si>
+    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
+  </si>
+  <si>
+    <t>3.75mm</t>
+  </si>
+  <si>
+    <t>48mm</t>
+  </si>
+  <si>
+    <t>2.48mm</t>
+  </si>
+  <si>
+    <t>44.19mm</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>MOT2</t>
+  </si>
+  <si>
+    <t>13.25mm</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>DEC/ALT</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>DZ254R-22-08-63</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>3.5mm</t>
+  </si>
+  <si>
+    <t>3.81mm</t>
+  </si>
+  <si>
+    <t>4.77mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>-10.25mm</t>
+  </si>
+  <si>
+    <t>31.5mm</t>
+  </si>
+  <si>
+    <t>30.747mm</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>-9mm</t>
+  </si>
+  <si>
+    <t>32.253mm</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>28.25mm</t>
+  </si>
+  <si>
+    <t>29.003mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>27.497mm</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>-12.75mm</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>-7.75mm</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>2.25mm</t>
+  </si>
+  <si>
+    <t>7.5mm</t>
+  </si>
+  <si>
+    <t>2.95mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>XC6701D502PR-G</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>11mm</t>
+  </si>
+  <si>
+    <t>1.5mm</t>
+  </si>
+  <si>
+    <t>12.356mm</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>0603WAF5602T5E</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>26.997mm</t>
+  </si>
+  <si>
+    <t>56kΩ</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>-22.25mm</t>
+  </si>
+  <si>
+    <t>45mm</t>
+  </si>
+  <si>
+    <t>44.247mm</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>-17mm</t>
+  </si>
+  <si>
+    <t>45.753mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>-0.25mm</t>
+  </si>
+  <si>
+    <t>52.75mm</t>
+  </si>
+  <si>
+    <t>-0.253mm</t>
+  </si>
+  <si>
+    <t>53.549mm</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>8.73mm</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>CL10C101JB8NNNC</t>
+  </si>
+  <si>
+    <t>7.25mm</t>
+  </si>
+  <si>
+    <t>27.05mm</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>-11mm</t>
+  </si>
+  <si>
+    <t>21.8mm</t>
+  </si>
+  <si>
+    <t>-10mm</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>21.75mm</t>
+  </si>
+  <si>
+    <t>18.25mm</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>CL21A226MAQNNNE</t>
+  </si>
+  <si>
+    <t>32mm</t>
+  </si>
+  <si>
+    <t>33.03mm</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603W</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD_WHITE</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>53.601mm</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>0603WAF3303T5E</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>39.25mm</t>
+  </si>
+  <si>
+    <t>40.003mm</t>
+  </si>
+  <si>
+    <t>330kΩ</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>EEEHAV101XAP</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
+  </si>
+  <si>
+    <t>-3.5mm</t>
+  </si>
+  <si>
+    <t>19.92mm</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
     <t>C21</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>17.25mm</t>
-  </si>
-  <si>
-    <t>23.25mm</t>
-  </si>
-  <si>
-    <t>16.55mm</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>-14.75mm</t>
-  </si>
-  <si>
-    <t>42.25mm</t>
-  </si>
-  <si>
-    <t>41.817mm</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>-15mm</t>
-  </si>
-  <si>
-    <t>43.5mm</t>
-  </si>
-  <si>
-    <t>-15.433mm</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>-13.75mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>23.5mm</t>
-  </si>
-  <si>
-    <t>41mm</t>
-  </si>
-  <si>
-    <t>41.433mm</t>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>-23.5mm</t>
+  </si>
+  <si>
+    <t>-22.059mm</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>-5mm</t>
+  </si>
+  <si>
+    <t>-6.441mm</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>6.441mm</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>22.059mm</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>ANT-TH_BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>35.5mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SMD1812P300SLR/24</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>16.5mm</t>
+  </si>
+  <si>
+    <t>29.195mm</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>36.5mm</t>
+  </si>
+  <si>
+    <t>14.5mm</t>
+  </si>
+  <si>
+    <t>37.475mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)_C88374</t>
+  </si>
+  <si>
+    <t>RF-SMD_FRF05002-JSS103M</t>
+  </si>
+  <si>
+    <t>36.512mm</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>23.75mm</t>
+  </si>
+  <si>
+    <t>-13.455mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>41.705mm</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>26mm</t>
+  </si>
+  <si>
+    <t>26.7mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>9.5mm</t>
+  </si>
+  <si>
+    <t>29.25mm</t>
+  </si>
+  <si>
+    <t>8.955mm</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>0603WAF1003T5E</t>
+  </si>
+  <si>
+    <t>24mm</t>
+  </si>
+  <si>
+    <t>38.5mm</t>
+  </si>
+  <si>
+    <t>39.253mm</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>-23mm</t>
+  </si>
+  <si>
+    <t>21.65mm</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>37mm</t>
+  </si>
+  <si>
+    <t>5.811mm</t>
+  </si>
+  <si>
+    <t>32.6mm</t>
+  </si>
+  <si>
+    <t>MX1</t>
+  </si>
+  <si>
+    <t>SMTSO3030CTJ</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>28mm</t>
+  </si>
+  <si>
+    <t>3.602mm</t>
+  </si>
+  <si>
+    <t>26.35mm</t>
+  </si>
+  <si>
+    <t>Plot M.2</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>0603WAF1802T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>24.5mm</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>44.75mm</t>
+  </si>
+  <si>
+    <t>43.157mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>50mm</t>
+  </si>
+  <si>
+    <t>50.753mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C9</t>
   </si>
   <si>
     <t>C24</t>
   </si>
   <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>14.2mm</t>
-  </si>
-  <si>
-    <t>22.5mm</t>
-  </si>
-  <si>
-    <t>13.655mm</t>
-  </si>
-  <si>
-    <t>MOT1</t>
-  </si>
-  <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>-13.25mm</t>
-  </si>
-  <si>
-    <t>2.75mm</t>
-  </si>
-  <si>
-    <t>-18.5mm</t>
-  </si>
-  <si>
-    <t>RA/AZ</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>-14mm</t>
-  </si>
-  <si>
-    <t>22.75mm</t>
-  </si>
-  <si>
-    <t>-14.545mm</t>
-  </si>
-  <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>1277AS-H-4R7M=P2_C237389</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>12.25mm</t>
-  </si>
-  <si>
-    <t>31.25mm</t>
-  </si>
-  <si>
-    <t>29.547mm</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
+    <t>21.5mm</t>
+  </si>
+  <si>
+    <t>14.745mm</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>-11.45mm</t>
-  </si>
-  <si>
-    <t>-10.75mm</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>24.75mm</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Power_Switch</t>
-  </si>
-  <si>
-    <t>Power_switch</t>
-  </si>
-  <si>
-    <t>21.98mm</t>
-  </si>
-  <si>
-    <t>48.75mm</t>
-  </si>
-  <si>
-    <t>53.83mm</t>
-  </si>
-  <si>
-    <t>4US1R102M7RN</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>DC005-T25</t>
-  </si>
-  <si>
-    <t>DC-IN-TH_DC-005-20A-1</t>
-  </si>
-  <si>
-    <t>9.75mm</t>
-  </si>
-  <si>
-    <t>47mm</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>44mm</t>
-  </si>
-  <si>
-    <t>L41</t>
-  </si>
-  <si>
-    <t>LQW18AN47NJ00D</t>
-  </si>
-  <si>
-    <t>IND-SMD_L1.6-W0.8-1</t>
-  </si>
-  <si>
-    <t>-5.75mm</t>
-  </si>
-  <si>
-    <t>37.75mm</t>
-  </si>
-  <si>
-    <t>37.05mm</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>AUX</t>
-  </si>
-  <si>
-    <t>HEAD2</t>
-  </si>
-  <si>
-    <t>HDR-TH_2P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>23mm</t>
-  </si>
-  <si>
-    <t>25.75mm</t>
-  </si>
-  <si>
-    <t>24.27mm</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>BAV99S,115</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>-19.9mm</t>
-  </si>
-  <si>
-    <t>45.048mm</t>
-  </si>
-  <si>
-    <t>-20.82mm</t>
-  </si>
-  <si>
-    <t>45.698mm</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>-14.625mm</t>
-  </si>
-  <si>
-    <t>45.375mm</t>
-  </si>
-  <si>
-    <t>-15.545mm</t>
-  </si>
-  <si>
-    <t>46.025mm</t>
-  </si>
-  <si>
-    <t>CN42</t>
-  </si>
-  <si>
-    <t>PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>AUDIO-SMD_PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>-7.5mm</t>
-  </si>
-  <si>
-    <t>-3.25mm</t>
-  </si>
-  <si>
-    <t>44.65mm</t>
-  </si>
-  <si>
-    <t>U52</t>
-  </si>
-  <si>
-    <t>ESP-01</t>
-  </si>
-  <si>
-    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
-  </si>
-  <si>
-    <t>3.75mm</t>
-  </si>
-  <si>
-    <t>48mm</t>
-  </si>
-  <si>
-    <t>2.48mm</t>
-  </si>
-  <si>
-    <t>44.19mm</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>MOT2</t>
-  </si>
-  <si>
-    <t>13.25mm</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>DEC/ALT</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>DZ254R-22-08-63</t>
-  </si>
-  <si>
-    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>3.5mm</t>
-  </si>
-  <si>
-    <t>3.81mm</t>
-  </si>
-  <si>
-    <t>4.77mm</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>-10.25mm</t>
-  </si>
-  <si>
-    <t>31.5mm</t>
-  </si>
-  <si>
-    <t>30.747mm</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>-9mm</t>
-  </si>
-  <si>
-    <t>32.253mm</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>28.25mm</t>
-  </si>
-  <si>
-    <t>29.003mm</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>27.497mm</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>-12.75mm</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>-7.75mm</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>2.25mm</t>
-  </si>
-  <si>
-    <t>7.5mm</t>
-  </si>
-  <si>
-    <t>2.95mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U56</t>
-  </si>
-  <si>
-    <t>XC6701D502PR-G</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>1.5mm</t>
-  </si>
-  <si>
-    <t>12.356mm</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>26.997mm</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>-22.25mm</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>44.247mm</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>-17mm</t>
-  </si>
-  <si>
-    <t>45.753mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>-0.25mm</t>
-  </si>
-  <si>
-    <t>52.75mm</t>
-  </si>
-  <si>
-    <t>-0.253mm</t>
-  </si>
-  <si>
-    <t>53.549mm</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>8.73mm</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>CL10C101JB8NNNC</t>
-  </si>
-  <si>
-    <t>7.25mm</t>
-  </si>
-  <si>
-    <t>27.05mm</t>
-  </si>
-  <si>
-    <t>100pF</t>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>-22.75mm</t>
+  </si>
+  <si>
+    <t>7.75mm</t>
+  </si>
+  <si>
+    <t>-22.05mm</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>5.75mm</t>
+  </si>
+  <si>
+    <t>6.45mm</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>27.25mm</t>
+  </si>
+  <si>
+    <t>17.53mm</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>-21.5mm</t>
+  </si>
+  <si>
+    <t>19.75mm</t>
+  </si>
+  <si>
+    <t>-19.907mm</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>-5.5mm</t>
+  </si>
+  <si>
+    <t>21.657mm</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>1.907mm</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>19.907mm</t>
   </si>
   <si>
     <t>C17</t>
   </si>
   <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>-11mm</t>
-  </si>
-  <si>
-    <t>21.8mm</t>
-  </si>
-  <si>
-    <t>-10mm</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>21.75mm</t>
-  </si>
-  <si>
-    <t>18.25mm</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>32mm</t>
-  </si>
-  <si>
-    <t>33.03mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>KT-0603W</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD_WHITE</t>
-  </si>
-  <si>
-    <t>18mm</t>
-  </si>
-  <si>
-    <t>53.601mm</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>39.25mm</t>
-  </si>
-  <si>
-    <t>40.003mm</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>EEEHAV101XAP</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
-  </si>
-  <si>
-    <t>-3.5mm</t>
-  </si>
-  <si>
-    <t>19.92mm</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>-23.5mm</t>
-  </si>
-  <si>
-    <t>-22.059mm</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>-5mm</t>
-  </si>
-  <si>
-    <t>-6.441mm</t>
+    <t>16.75mm</t>
+  </si>
+  <si>
+    <t>25.25mm</t>
+  </si>
+  <si>
+    <t>18.343mm</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>BZT52C12_C173429</t>
+  </si>
+  <si>
+    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
+  </si>
+  <si>
+    <t>22mm</t>
+  </si>
+  <si>
+    <t>37.365mm</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>-20.097mm</t>
+  </si>
+  <si>
+    <t>-19.343mm</t>
+  </si>
+  <si>
+    <t>10Ω</t>
   </si>
   <si>
     <t>R22</t>
   </si>
   <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>6.441mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>22.059mm</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>ANT-TH_BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>35.5mm</t>
-  </si>
-  <si>
-    <t>F51</t>
-  </si>
-  <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>16.5mm</t>
-  </si>
-  <si>
-    <t>29.195mm</t>
-  </si>
-  <si>
-    <t>Q52</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>36.5mm</t>
-  </si>
-  <si>
-    <t>14.5mm</t>
-  </si>
-  <si>
-    <t>37.475mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)_C88374</t>
-  </si>
-  <si>
-    <t>RF-SMD_FRF05002-JSS103M</t>
-  </si>
-  <si>
-    <t>36.512mm</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>23.75mm</t>
-  </si>
-  <si>
-    <t>-13.455mm</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>41.705mm</t>
-  </si>
-  <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>26mm</t>
-  </si>
-  <si>
-    <t>26.7mm</t>
-  </si>
-  <si>
-    <t>C95</t>
-  </si>
-  <si>
-    <t>9.5mm</t>
-  </si>
-  <si>
-    <t>29.25mm</t>
-  </si>
-  <si>
-    <t>8.955mm</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>38.5mm</t>
-  </si>
-  <si>
-    <t>39.253mm</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>U40</t>
-  </si>
-  <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>-23mm</t>
-  </si>
-  <si>
-    <t>21.65mm</t>
-  </si>
-  <si>
-    <t>U41</t>
-  </si>
-  <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>37mm</t>
-  </si>
-  <si>
-    <t>5.811mm</t>
-  </si>
-  <si>
-    <t>32.6mm</t>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>SMTSO3030CTJ</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>28mm</t>
-  </si>
-  <si>
-    <t>3.602mm</t>
-  </si>
-  <si>
-    <t>26.35mm</t>
-  </si>
-  <si>
-    <t>Plot M.2</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>24.5mm</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C94</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>-0.5mm</t>
-  </si>
-  <si>
-    <t>44.75mm</t>
-  </si>
-  <si>
-    <t>43.157mm</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>50.753mm</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>21.5mm</t>
-  </si>
-  <si>
-    <t>14.745mm</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>-22.75mm</t>
-  </si>
-  <si>
-    <t>7.75mm</t>
-  </si>
-  <si>
-    <t>-22.05mm</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>5.75mm</t>
-  </si>
-  <si>
-    <t>6.45mm</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNE</t>
-  </si>
-  <si>
-    <t>27.25mm</t>
-  </si>
-  <si>
-    <t>17.53mm</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>-21.5mm</t>
-  </si>
-  <si>
-    <t>19.75mm</t>
-  </si>
-  <si>
-    <t>-19.907mm</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>-5.5mm</t>
-  </si>
-  <si>
-    <t>21.657mm</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>1.907mm</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>19.907mm</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>16.75mm</t>
-  </si>
-  <si>
-    <t>25.25mm</t>
-  </si>
-  <si>
-    <t>18.343mm</t>
-  </si>
-  <si>
-    <t>D52</t>
-  </si>
-  <si>
-    <t>BZT52C12_C173429</t>
-  </si>
-  <si>
-    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
-  </si>
-  <si>
-    <t>22mm</t>
-  </si>
-  <si>
-    <t>37.365mm</t>
-  </si>
-  <si>
-    <t>BZT52C12</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>-20.097mm</t>
-  </si>
-  <si>
-    <t>-19.343mm</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>-7.903mm</t>
   </si>
   <si>
     <t>-8.656mm</t>
   </si>
   <si>
-    <t>R21</t>
+    <t>R27</t>
   </si>
   <si>
     <t>8.403mm</t>
@@ -1267,7 +1267,7 @@
     <t>9.156mm</t>
   </si>
   <si>
-    <t>R23</t>
+    <t>R29</t>
   </si>
   <si>
     <t>20.597mm</t>
@@ -1276,13 +1276,13 @@
     <t>19.843mm</t>
   </si>
   <si>
-    <t>R57</t>
+    <t>R17</t>
   </si>
   <si>
     <t>38.997mm</t>
   </si>
   <si>
-    <t>U55</t>
+    <t>U4</t>
   </si>
   <si>
     <t>AP63200WU-7</t>

--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_Redux v2.6.4_2024-" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_Redux v2.6.4B_2024" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="466">
   <si>
     <t>Designator</t>
   </si>
@@ -67,1240 +67,1348 @@
     <t>14.25mm</t>
   </si>
   <si>
-    <t>13.75mm</t>
+    <t>6.75mm</t>
   </si>
   <si>
     <t>8.25mm</t>
   </si>
   <si>
+    <t>10.75mm</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>-14.25mm</t>
+  </si>
+  <si>
+    <t>-20.25mm</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>USB_C</t>
+  </si>
+  <si>
+    <t>USB-C-SMD_TYPE-C-USB-18</t>
+  </si>
+  <si>
+    <t>-20mm</t>
+  </si>
+  <si>
+    <t>43.3mm</t>
+  </si>
+  <si>
+    <t>-24.32mm</t>
+  </si>
+  <si>
+    <t>46.21mm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CR1220-2</t>
+  </si>
+  <si>
+    <t>bat-smd_cr1220-2</t>
+  </si>
+  <si>
+    <t>17.816mm</t>
+  </si>
+  <si>
+    <t>29.25mm</t>
+  </si>
+  <si>
+    <t>21.25mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ML1220</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-14.5mm</t>
+  </si>
+  <si>
+    <t>35.108mm</t>
+  </si>
+  <si>
+    <t>34.675mm</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>-15mm</t>
+  </si>
+  <si>
+    <t>36.538mm</t>
+  </si>
+  <si>
+    <t>-15.433mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>-13.5mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>14.124mm</t>
+  </si>
+  <si>
+    <t>15.5mm</t>
+  </si>
+  <si>
+    <t>13.579mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>-12.5mm</t>
+  </si>
+  <si>
+    <t>-4.25mm</t>
+  </si>
+  <si>
+    <t>-17.75mm</t>
+  </si>
+  <si>
+    <t>RA/AZ</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>-13.75mm</t>
+  </si>
+  <si>
+    <t>15.75mm</t>
+  </si>
+  <si>
+    <t>-14.295mm</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>8.75mm</t>
+  </si>
+  <si>
+    <t>35.75mm</t>
+  </si>
+  <si>
+    <t>8.317mm</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Power_Switch</t>
+  </si>
+  <si>
+    <t>Power_switch</t>
+  </si>
+  <si>
+    <t>21.98mm</t>
+  </si>
+  <si>
+    <t>41.75mm</t>
+  </si>
+  <si>
+    <t>23.25mm</t>
+  </si>
+  <si>
+    <t>46.83mm</t>
+  </si>
+  <si>
+    <t>4US1R102M7RN</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LQW18AN47NJ00D</t>
+  </si>
+  <si>
+    <t>IND-SMD_L1.6-W0.8-1</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>37.095mm</t>
+  </si>
+  <si>
+    <t>0.2mm</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BAV99S,115</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>-19.9mm</t>
+  </si>
+  <si>
+    <t>38.048mm</t>
+  </si>
+  <si>
+    <t>-20.82mm</t>
+  </si>
+  <si>
+    <t>38.698mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>-14.625mm</t>
+  </si>
+  <si>
+    <t>38.375mm</t>
+  </si>
+  <si>
+    <t>-15.545mm</t>
+  </si>
+  <si>
+    <t>39.025mm</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>AUDIO-SMD_PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>-7.5mm</t>
+  </si>
+  <si>
+    <t>-3.25mm</t>
+  </si>
+  <si>
+    <t>37.65mm</t>
+  </si>
+  <si>
+    <t>MOT2</t>
+  </si>
+  <si>
+    <t>12.5mm</t>
+  </si>
+  <si>
+    <t>7.25mm</t>
+  </si>
+  <si>
+    <t>DEC/ALT</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>-10.75mm</t>
+  </si>
+  <si>
+    <t>24.5mm</t>
+  </si>
+  <si>
+    <t>23.747mm</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>-9.5mm</t>
+  </si>
+  <si>
+    <t>25.253mm</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>-11.5mm</t>
+  </si>
+  <si>
+    <t>22.003mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>-10.25mm</t>
+  </si>
+  <si>
+    <t>20.497mm</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>-13.25mm</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>-12mm</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>-9mm</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>-7.75mm</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>-22.25mm</t>
+  </si>
+  <si>
+    <t>38mm</t>
+  </si>
+  <si>
+    <t>37.247mm</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>-17mm</t>
+  </si>
+  <si>
+    <t>38.753mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>-14mm</t>
+  </si>
+  <si>
+    <t>46.25mm</t>
+  </si>
+  <si>
+    <t>-14.003mm</t>
+  </si>
+  <si>
+    <t>47.049mm</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>HDR-TH_2P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>20.446mm</t>
+  </si>
+  <si>
+    <t>39.044mm</t>
+  </si>
+  <si>
+    <t>40.314mm</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>15mm</t>
+  </si>
+  <si>
+    <t>-9.75mm</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>17.25mm</t>
+  </si>
+  <si>
+    <t>14.75mm</t>
+  </si>
+  <si>
+    <t>18.25mm</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603W</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD_WHITE</t>
+  </si>
+  <si>
+    <t>18.273mm</t>
+  </si>
+  <si>
+    <t>45.8mm</t>
+  </si>
+  <si>
+    <t>46.651mm</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>-23.5mm</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>-22.059mm</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>-5mm</t>
+  </si>
+  <si>
+    <t>-6.441mm</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>6.441mm</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>23.5mm</t>
+  </si>
+  <si>
+    <t>22.059mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)_C88374</t>
+  </si>
+  <si>
+    <t>RF-SMD_FRF05002-JSS103M</t>
+  </si>
+  <si>
+    <t>-1.25mm</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>40.238mm</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>16.75mm</t>
+  </si>
+  <si>
+    <t>-13.383mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>35.341mm</t>
+  </si>
+  <si>
+    <t>34.796mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>20.566mm</t>
+  </si>
+  <si>
+    <t>31.25mm</t>
+  </si>
+  <si>
+    <t>31.795mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>25mm</t>
+  </si>
+  <si>
+    <t>-18.5mm</t>
+  </si>
+  <si>
+    <t>-23mm</t>
+  </si>
+  <si>
+    <t>14.65mm</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>30mm</t>
+  </si>
+  <si>
+    <t>4.811mm</t>
+  </si>
+  <si>
+    <t>25.6mm</t>
+  </si>
+  <si>
+    <t>MX1</t>
+  </si>
+  <si>
+    <t>SMTSO3030CTJ</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>1.5mm</t>
+  </si>
+  <si>
+    <t>21mm</t>
+  </si>
+  <si>
+    <t>3.602mm</t>
+  </si>
+  <si>
+    <t>19.35mm</t>
+  </si>
+  <si>
+    <t>Plot M.2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
     <t>17.75mm</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>-14.25mm</t>
-  </si>
-  <si>
-    <t>-20.25mm</t>
-  </si>
-  <si>
-    <t>CN2</t>
-  </si>
-  <si>
-    <t>USB_C</t>
-  </si>
-  <si>
-    <t>USB-C-SMD_TYPE-C-USB-18</t>
-  </si>
-  <si>
-    <t>-20mm</t>
-  </si>
-  <si>
-    <t>50.3mm</t>
-  </si>
-  <si>
-    <t>-24.32mm</t>
-  </si>
-  <si>
-    <t>53.21mm</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>-13.205mm</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>14.5mm</t>
+  </si>
+  <si>
+    <t>14.669mm</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>-23.298mm</t>
+  </si>
+  <si>
+    <t>-22.598mm</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>2.75mm</t>
+  </si>
+  <si>
+    <t>0.75mm</t>
+  </si>
+  <si>
+    <t>3.45mm</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>13mm</t>
+  </si>
+  <si>
+    <t>29mm</t>
+  </si>
+  <si>
+    <t>27.97mm</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>-21.5mm</t>
+  </si>
+  <si>
+    <t>12.75mm</t>
+  </si>
+  <si>
+    <t>-19.907mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>-5.5mm</t>
+  </si>
+  <si>
+    <t>16.25mm</t>
+  </si>
+  <si>
+    <t>14.657mm</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>5.5mm</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>21.5mm</t>
+  </si>
+  <si>
+    <t>12.25mm</t>
+  </si>
+  <si>
+    <t>19.907mm</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>31.868mm</t>
+  </si>
+  <si>
+    <t>33.46mm</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>-20.591mm</t>
+  </si>
+  <si>
+    <t>-19.837mm</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>-7.91mm</t>
+  </si>
+  <si>
+    <t>0.65mm</t>
+  </si>
+  <si>
+    <t>-8.663mm</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>7.909mm</t>
+  </si>
+  <si>
+    <t>8.663mm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>20.593mm</t>
+  </si>
+  <si>
+    <t>19.84mm</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>-12.659mm</t>
+  </si>
+  <si>
+    <t>32.774mm</t>
+  </si>
+  <si>
+    <t>32.021mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>AP63205WU-7</t>
+  </si>
+  <si>
+    <t>TSOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
+  </si>
+  <si>
+    <t>30.75mm</t>
+  </si>
+  <si>
+    <t>16.466mm</t>
+  </si>
+  <si>
+    <t>31.7mm</t>
+  </si>
+  <si>
+    <t>BRAKE</t>
+  </si>
+  <si>
+    <t>X4621WVS-2x02I-C40D64</t>
+  </si>
+  <si>
+    <t>HDR-SMD_4P-P2.00-V-M-R2-C2-S2.0</t>
+  </si>
+  <si>
+    <t>22.25mm</t>
+  </si>
+  <si>
+    <t>17.5mm</t>
+  </si>
+  <si>
+    <t>19.75mm</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>7.301mm</t>
+  </si>
+  <si>
+    <t>35.082mm</t>
+  </si>
+  <si>
+    <t>35.627mm</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>0402B102K500NT</t>
+  </si>
+  <si>
+    <t>7mm</t>
+  </si>
+  <si>
+    <t>29.75mm</t>
+  </si>
+  <si>
+    <t>30.295mm</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>SS34_C8678</t>
+  </si>
+  <si>
+    <t>SMA_L4.3-W2.6-LS5.2-RD</t>
+  </si>
+  <si>
+    <t>10.25mm</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>8.05mm</t>
+  </si>
+  <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>11.479mm</t>
+  </si>
+  <si>
+    <t>24.25mm</t>
+  </si>
+  <si>
+    <t>23.22mm</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>20.5mm</t>
+  </si>
+  <si>
+    <t>28mm</t>
+  </si>
+  <si>
+    <t>28.545mm</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>25.432mm</t>
+  </si>
+  <si>
+    <t>23.84mm</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>AP63203WU-7</t>
+  </si>
+  <si>
+    <t>TSOT-26_L2.9-W1.6-P0.95-LS2.8-BL</t>
+  </si>
+  <si>
+    <t>27.5mm</t>
+  </si>
+  <si>
+    <t>16.616mm</t>
+  </si>
+  <si>
+    <t>28.45mm</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>SWPA252012S100MT</t>
+  </si>
+  <si>
+    <t>IND-SMD_L2.5-W2.0_SWPA252012S</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>29.05mm</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>26.75mm</t>
+  </si>
+  <si>
+    <t>27.7mm</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>CL21A106KAYNNNE_C15850</t>
+  </si>
+  <si>
+    <t>24mm</t>
+  </si>
+  <si>
+    <t>33.25mm</t>
+  </si>
+  <si>
+    <t>34.25mm</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>22mm</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>22.5mm</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>CL10A474KB8NNNC</t>
+  </si>
+  <si>
+    <t>-5.2mm</t>
+  </si>
+  <si>
+    <t>-4.5mm</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>-23.3mm</t>
+  </si>
+  <si>
+    <t>-24mm</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>5.2mm</t>
+  </si>
+  <si>
+    <t>4.5mm</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>23.3mm</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC-005-5A-2.0</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005-5A-2.0</t>
+  </si>
+  <si>
+    <t>40mm</t>
+  </si>
+  <si>
+    <t>12.602mm</t>
+  </si>
+  <si>
+    <t>37mm</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>RB751V40T1G</t>
+    <t>1N5819WS_C191023</t>
   </si>
   <si>
     <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
   </si>
   <si>
-    <t>-11.5mm</t>
-  </si>
-  <si>
-    <t>39.75mm</t>
-  </si>
-  <si>
-    <t>38.578mm</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>P6SMB30CA_C80384</t>
-  </si>
-  <si>
-    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
-  </si>
-  <si>
-    <t>19.5mm</t>
-  </si>
-  <si>
-    <t>44.496mm</t>
-  </si>
-  <si>
-    <t>44.5mm</t>
-  </si>
-  <si>
-    <t>41.9mm</t>
-  </si>
-  <si>
-    <t>P6SMB30CA</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>CR1220-2</t>
-  </si>
-  <si>
-    <t>BAT-SMD_CR1220-2</t>
-  </si>
-  <si>
-    <t>17.5mm</t>
-  </si>
-  <si>
-    <t>35.75mm</t>
-  </si>
-  <si>
-    <t>27.75mm</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>ML1220</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>DMP3013SFV-7</t>
-  </si>
-  <si>
-    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
-  </si>
-  <si>
-    <t>15mm</t>
-  </si>
-  <si>
-    <t>40.5mm</t>
-  </si>
-  <si>
-    <t>14.025mm</t>
-  </si>
-  <si>
-    <t>39mm</t>
+    <t>-11.112mm</t>
+  </si>
+  <si>
+    <t>33.844mm</t>
+  </si>
+  <si>
+    <t>32.672mm</t>
+  </si>
+  <si>
+    <t>1N5819WS</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>VEJ101M1VTR-0607</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD6.3-L6.6-W6.6-RD</t>
+  </si>
+  <si>
+    <t>-3.5mm</t>
+  </si>
+  <si>
+    <t>9.25mm</t>
+  </si>
+  <si>
+    <t>11.805mm</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>3.5mm</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>CA45-A-10V-47uF-M</t>
+  </si>
+  <si>
+    <t>CAP-SMD_L3.2-W1.6</t>
+  </si>
+  <si>
+    <t>18.476mm</t>
+  </si>
+  <si>
+    <t>35.046mm</t>
+  </si>
+  <si>
+    <t>17.126mm</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>20.25mm</t>
+  </si>
+  <si>
+    <t>24.85mm</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>DS1023-2*4SF11</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-F-R2-C4-S2.54</t>
+  </si>
+  <si>
+    <t>3.81mm</t>
+  </si>
+  <si>
+    <t>-2.23mm</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>4mm</t>
+  </si>
+  <si>
+    <t>2.73mm</t>
+  </si>
+  <si>
+    <t>44.81mm</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>DPS1135FIA-13</t>
+  </si>
+  <si>
+    <t>QFN-17_L4.0-W4.0-P0.50-TL-EP</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>33mm</t>
+  </si>
+  <si>
+    <t>11.725mm</t>
+  </si>
+  <si>
+    <t>34.9mm</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>0603WAF1500T5E</t>
+  </si>
+  <si>
+    <t>-13.995mm</t>
+  </si>
+  <si>
+    <t>43.5mm</t>
+  </si>
+  <si>
+    <t>42.747mm</t>
+  </si>
+  <si>
+    <t>150Ω</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>GRM188R6YA106MA73D</t>
+  </si>
+  <si>
+    <t>6.5mm</t>
+  </si>
+  <si>
+    <t>32.375mm</t>
+  </si>
+  <si>
+    <t>33.075mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>42.452mm</t>
+  </si>
+  <si>
+    <t>43.206mm</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>0603WAF3302T5E</t>
+  </si>
+  <si>
+    <t>8.174mm</t>
+  </si>
+  <si>
+    <t>28.497mm</t>
+  </si>
+  <si>
+    <t>33kΩ</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>-11.25mm</t>
+  </si>
+  <si>
+    <t>16.5mm</t>
+  </si>
+  <si>
+    <t>-10.55mm</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>13.132mm</t>
+  </si>
+  <si>
+    <t>32.421mm</t>
+  </si>
+  <si>
+    <t>33.121mm</t>
   </si>
   <si>
     <t>C23</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>17.25mm</t>
-  </si>
-  <si>
-    <t>23.25mm</t>
+    <t>16.421mm</t>
   </si>
   <si>
     <t>16.55mm</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>-14.75mm</t>
-  </si>
-  <si>
-    <t>42.25mm</t>
-  </si>
-  <si>
-    <t>41.817mm</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>-15mm</t>
-  </si>
-  <si>
-    <t>43.5mm</t>
-  </si>
-  <si>
-    <t>-15.433mm</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>-13.75mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>23.5mm</t>
-  </si>
-  <si>
-    <t>41mm</t>
-  </si>
-  <si>
-    <t>41.433mm</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>14.2mm</t>
-  </si>
-  <si>
-    <t>22.5mm</t>
-  </si>
-  <si>
-    <t>13.655mm</t>
-  </si>
-  <si>
-    <t>MOT1</t>
-  </si>
-  <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>-13.25mm</t>
-  </si>
-  <si>
-    <t>2.75mm</t>
-  </si>
-  <si>
-    <t>-18.5mm</t>
-  </si>
-  <si>
-    <t>RA/AZ</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>-14mm</t>
-  </si>
-  <si>
-    <t>22.75mm</t>
-  </si>
-  <si>
-    <t>-14.545mm</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>1277AS-H-4R7M=P2_C237389</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>12.25mm</t>
-  </si>
-  <si>
-    <t>31.25mm</t>
-  </si>
-  <si>
-    <t>29.547mm</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>-11.45mm</t>
-  </si>
-  <si>
-    <t>-10.75mm</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>24.75mm</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Power_Switch</t>
-  </si>
-  <si>
-    <t>Power_switch</t>
-  </si>
-  <si>
-    <t>21.98mm</t>
-  </si>
-  <si>
-    <t>48.75mm</t>
-  </si>
-  <si>
-    <t>53.83mm</t>
-  </si>
-  <si>
-    <t>4US1R102M7RN</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>DC005-T25</t>
-  </si>
-  <si>
-    <t>DC-IN-TH_DC-005-20A-1</t>
-  </si>
-  <si>
-    <t>9.75mm</t>
-  </si>
-  <si>
-    <t>47mm</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>44mm</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>LQW18AN47NJ00D</t>
-  </si>
-  <si>
-    <t>IND-SMD_L1.6-W0.8-1</t>
-  </si>
-  <si>
-    <t>-5.75mm</t>
-  </si>
-  <si>
-    <t>37.75mm</t>
-  </si>
-  <si>
-    <t>37.05mm</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>AUX</t>
-  </si>
-  <si>
-    <t>HEAD2</t>
-  </si>
-  <si>
-    <t>HDR-TH_2P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>23mm</t>
-  </si>
-  <si>
-    <t>25.75mm</t>
-  </si>
-  <si>
-    <t>24.27mm</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>BAV99S,115</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>-19.9mm</t>
-  </si>
-  <si>
-    <t>45.048mm</t>
-  </si>
-  <si>
-    <t>-20.82mm</t>
-  </si>
-  <si>
-    <t>45.698mm</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>-14.625mm</t>
-  </si>
-  <si>
-    <t>45.375mm</t>
-  </si>
-  <si>
-    <t>-15.545mm</t>
-  </si>
-  <si>
-    <t>46.025mm</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>AUDIO-SMD_PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>-7.5mm</t>
-  </si>
-  <si>
-    <t>-3.25mm</t>
-  </si>
-  <si>
-    <t>44.65mm</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>ESP-01</t>
-  </si>
-  <si>
-    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
-  </si>
-  <si>
-    <t>3.75mm</t>
-  </si>
-  <si>
-    <t>48mm</t>
-  </si>
-  <si>
-    <t>2.48mm</t>
-  </si>
-  <si>
-    <t>44.19mm</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>MOT2</t>
-  </si>
-  <si>
-    <t>13.25mm</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>DEC/ALT</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>DZ254R-22-08-63</t>
-  </si>
-  <si>
-    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>3.5mm</t>
-  </si>
-  <si>
-    <t>3.81mm</t>
-  </si>
-  <si>
-    <t>4.77mm</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>-10.25mm</t>
-  </si>
-  <si>
-    <t>31.5mm</t>
-  </si>
-  <si>
-    <t>30.747mm</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>-9mm</t>
-  </si>
-  <si>
-    <t>32.253mm</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>28.25mm</t>
-  </si>
-  <si>
-    <t>29.003mm</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>27.497mm</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>-12.75mm</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>-7.75mm</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>2.25mm</t>
-  </si>
-  <si>
-    <t>7.5mm</t>
-  </si>
-  <si>
-    <t>2.95mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>XC6701D502PR-G</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>1.5mm</t>
-  </si>
-  <si>
-    <t>12.356mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>26.997mm</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>-22.25mm</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>44.247mm</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>-17mm</t>
-  </si>
-  <si>
-    <t>45.753mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>-0.25mm</t>
-  </si>
-  <si>
-    <t>52.75mm</t>
-  </si>
-  <si>
-    <t>-0.253mm</t>
-  </si>
-  <si>
-    <t>53.549mm</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>8.73mm</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>CL10C101JB8NNNC</t>
-  </si>
-  <si>
-    <t>7.25mm</t>
-  </si>
-  <si>
-    <t>27.05mm</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>-11mm</t>
-  </si>
-  <si>
-    <t>21.8mm</t>
-  </si>
-  <si>
-    <t>-10mm</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>21.75mm</t>
-  </si>
-  <si>
-    <t>18.25mm</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>32mm</t>
-  </si>
-  <si>
-    <t>33.03mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>KT-0603W</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD_WHITE</t>
-  </si>
-  <si>
-    <t>18mm</t>
-  </si>
-  <si>
-    <t>53.601mm</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>39.25mm</t>
-  </si>
-  <si>
-    <t>40.003mm</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>EEEHAV101XAP</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
-  </si>
-  <si>
-    <t>-3.5mm</t>
-  </si>
-  <si>
-    <t>19.92mm</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>-23.5mm</t>
-  </si>
-  <si>
-    <t>-22.059mm</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>-5mm</t>
-  </si>
-  <si>
-    <t>-6.441mm</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>6.441mm</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>22.059mm</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>ANT-TH_BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>35.5mm</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>16.5mm</t>
-  </si>
-  <si>
-    <t>29.195mm</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>36.5mm</t>
-  </si>
-  <si>
-    <t>14.5mm</t>
-  </si>
-  <si>
-    <t>37.475mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)_C88374</t>
-  </si>
-  <si>
-    <t>RF-SMD_FRF05002-JSS103M</t>
-  </si>
-  <si>
-    <t>36.512mm</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>23.75mm</t>
-  </si>
-  <si>
-    <t>-13.455mm</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>41.705mm</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>26mm</t>
-  </si>
-  <si>
-    <t>26.7mm</t>
-  </si>
-  <si>
-    <t>C13</t>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>13.143mm</t>
+  </si>
+  <si>
+    <t>23.8mm</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>RC0603FR-07255KL_C295887</t>
   </si>
   <si>
     <t>9.5mm</t>
   </si>
   <si>
-    <t>29.25mm</t>
-  </si>
-  <si>
-    <t>8.955mm</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>38.5mm</t>
-  </si>
-  <si>
-    <t>39.253mm</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>-23mm</t>
-  </si>
-  <si>
-    <t>21.65mm</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>37mm</t>
-  </si>
-  <si>
-    <t>5.811mm</t>
-  </si>
-  <si>
-    <t>32.6mm</t>
-  </si>
-  <si>
-    <t>MX1</t>
-  </si>
-  <si>
-    <t>SMTSO3030CTJ</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>28mm</t>
-  </si>
-  <si>
-    <t>3.602mm</t>
-  </si>
-  <si>
-    <t>26.35mm</t>
-  </si>
-  <si>
-    <t>Plot M.2</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>24.5mm</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>-0.5mm</t>
-  </si>
-  <si>
-    <t>44.75mm</t>
-  </si>
-  <si>
-    <t>43.157mm</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>50.753mm</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>21.5mm</t>
-  </si>
-  <si>
-    <t>14.745mm</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>-22.75mm</t>
-  </si>
-  <si>
-    <t>7.75mm</t>
-  </si>
-  <si>
-    <t>-22.05mm</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>5.75mm</t>
-  </si>
-  <si>
-    <t>6.45mm</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNE</t>
-  </si>
-  <si>
-    <t>27.25mm</t>
-  </si>
-  <si>
-    <t>17.53mm</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>-21.5mm</t>
-  </si>
-  <si>
-    <t>19.75mm</t>
-  </si>
-  <si>
-    <t>-19.907mm</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>-5.5mm</t>
-  </si>
-  <si>
-    <t>21.657mm</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>1.907mm</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>19.907mm</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>16.75mm</t>
-  </si>
-  <si>
-    <t>25.25mm</t>
-  </si>
-  <si>
-    <t>18.343mm</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>BZT52C12_C173429</t>
-  </si>
-  <si>
-    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
-  </si>
-  <si>
-    <t>22mm</t>
-  </si>
-  <si>
-    <t>37.365mm</t>
-  </si>
-  <si>
-    <t>BZT52C12</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>-20.097mm</t>
-  </si>
-  <si>
-    <t>-19.343mm</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>-7.903mm</t>
-  </si>
-  <si>
-    <t>-8.656mm</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>8.403mm</t>
-  </si>
-  <si>
-    <t>9.156mm</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>20.597mm</t>
-  </si>
-  <si>
-    <t>19.843mm</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>38.997mm</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>AP63200WU-7</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>10.5mm</t>
-  </si>
-  <si>
-    <t>26.5mm</t>
-  </si>
-  <si>
-    <t>9.55mm</t>
-  </si>
-  <si>
-    <t>25.15mm</t>
+    <t>28.75mm</t>
+  </si>
+  <si>
+    <t>27.997mm</t>
+  </si>
+  <si>
+    <t>255kΩ</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1894,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>90</v>
@@ -1903,36 +2011,36 @@
         <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1947,124 +2055,124 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7">
-        <v>90</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2079,80 +2187,80 @@
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10">
-        <v>90</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -2167,36 +2275,36 @@
         <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -2205,86 +2313,86 @@
         <v>21</v>
       </c>
       <c r="L12">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
         <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13">
-        <v>270</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2299,39 +2407,39 @@
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
-        <v>99</v>
-      </c>
       <c r="J15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2340,42 +2448,42 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>105</v>
       </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
       <c r="J16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -2387,7 +2495,7 @@
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2404,78 +2512,78 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
       </c>
       <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
         <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>111</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
         <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>113</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
         <v>115</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>180</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2483,28 +2591,28 @@
         <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2513,89 +2621,89 @@
         <v>21</v>
       </c>
       <c r="L19">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
         <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
       </c>
       <c r="L20">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M20" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" t="s">
-        <v>128</v>
-      </c>
       <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
         <v>129</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>130</v>
       </c>
-      <c r="I21" t="s">
-        <v>131</v>
-      </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -2604,40 +2712,40 @@
         <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" t="s">
-        <v>137</v>
-      </c>
       <c r="J22">
         <v>2</v>
       </c>
@@ -2645,42 +2753,42 @@
         <v>21</v>
       </c>
       <c r="L22">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2689,306 +2797,306 @@
         <v>21</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
         <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
       </c>
       <c r="L27">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
       </c>
       <c r="L29">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2997,42 +3105,42 @@
         <v>21</v>
       </c>
       <c r="L30">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N30" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -3041,42 +3149,42 @@
         <v>21</v>
       </c>
       <c r="L31">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -3085,42 +3193,42 @@
         <v>21</v>
       </c>
       <c r="L32">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3135,124 +3243,124 @@
         <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
         <v>183</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>184</v>
       </c>
-      <c r="D34" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>180</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
         <v>186</v>
-      </c>
-      <c r="F34" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" t="s">
-        <v>187</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34">
-        <v>90</v>
-      </c>
-      <c r="M34" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
         <v>186</v>
-      </c>
-      <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35">
-        <v>270</v>
-      </c>
-      <c r="M35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
         <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3261,42 +3369,42 @@
         <v>21</v>
       </c>
       <c r="L36">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s">
         <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" t="s">
         <v>184</v>
       </c>
-      <c r="D37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" t="s">
         <v>195</v>
       </c>
-      <c r="F37" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37" t="s">
-        <v>195</v>
-      </c>
-      <c r="H37" t="s">
-        <v>204</v>
-      </c>
       <c r="I37" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3305,130 +3413,130 @@
         <v>21</v>
       </c>
       <c r="L37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
       </c>
       <c r="L38">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
       <c r="L39">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
       </c>
       <c r="N39" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3443,36 +3551,36 @@
         <v>22</v>
       </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -3481,45 +3589,45 @@
         <v>21</v>
       </c>
       <c r="L41">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
       </c>
       <c r="N41" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="I42" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -3531,39 +3639,39 @@
         <v>22</v>
       </c>
       <c r="N42" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G43" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I43" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -3575,39 +3683,39 @@
         <v>22</v>
       </c>
       <c r="N43" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -3616,39 +3724,39 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -3657,42 +3765,42 @@
         <v>21</v>
       </c>
       <c r="L45">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="M45" t="s">
         <v>22</v>
       </c>
       <c r="N45" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I46" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -3707,36 +3815,36 @@
         <v>22</v>
       </c>
       <c r="N46" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -3751,36 +3859,36 @@
         <v>22</v>
       </c>
       <c r="N47" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>247</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s">
         <v>248</v>
       </c>
-      <c r="D48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" t="s">
-        <v>258</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>258</v>
-      </c>
-      <c r="H48" t="s">
-        <v>173</v>
-      </c>
       <c r="I48" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -3789,42 +3897,42 @@
         <v>21</v>
       </c>
       <c r="L48">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M48" t="s">
         <v>22</v>
       </c>
       <c r="N48" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H49" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -3833,42 +3941,42 @@
         <v>21</v>
       </c>
       <c r="L49">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
       </c>
       <c r="N49" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -3883,36 +3991,36 @@
         <v>22</v>
       </c>
       <c r="N50" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F51" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -3921,42 +4029,42 @@
         <v>21</v>
       </c>
       <c r="L51">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M51" t="s">
         <v>22</v>
       </c>
       <c r="N51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="H52" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -3965,42 +4073,42 @@
         <v>21</v>
       </c>
       <c r="L52">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
       </c>
       <c r="N52" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="I53" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -4009,42 +4117,42 @@
         <v>21</v>
       </c>
       <c r="L53">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
       </c>
       <c r="N53" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="H54" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="I54" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -4053,42 +4161,42 @@
         <v>21</v>
       </c>
       <c r="L54">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="F55" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="H55" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -4097,42 +4205,42 @@
         <v>21</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
       </c>
       <c r="N55" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
         <v>281</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" t="s">
+        <v>281</v>
+      </c>
+      <c r="G56" t="s">
+        <v>252</v>
+      </c>
+      <c r="H56" t="s">
         <v>282</v>
       </c>
-      <c r="D56" t="s">
-        <v>290</v>
-      </c>
-      <c r="E56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" t="s">
-        <v>290</v>
-      </c>
-      <c r="G56" t="s">
-        <v>239</v>
-      </c>
-      <c r="H56" t="s">
-        <v>291</v>
-      </c>
       <c r="I56" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -4147,36 +4255,36 @@
         <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="H57" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I57" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -4191,80 +4299,80 @@
         <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G58" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="I58" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M58" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N58" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="H59" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I59" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -4273,133 +4381,133 @@
         <v>21</v>
       </c>
       <c r="L59">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
       </c>
       <c r="N59" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
       <c r="L60">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M60" t="s">
         <v>22</v>
       </c>
       <c r="N60" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="H61" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="L61">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M61" t="s">
         <v>22</v>
       </c>
       <c r="N61" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="E62" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="G62" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>315</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="s">
         <v>21</v>
@@ -4411,36 +4519,36 @@
         <v>22</v>
       </c>
       <c r="N62" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="I63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -4449,39 +4557,39 @@
         <v>21</v>
       </c>
       <c r="L63">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
       </c>
       <c r="N63" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
         <v>318</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" t="s">
-        <v>172</v>
       </c>
       <c r="E64" t="s">
         <v>319</v>
       </c>
       <c r="F64" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="G64" t="s">
         <v>319</v>
       </c>
       <c r="H64" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="I64" t="s">
         <v>320</v>
@@ -4499,36 +4607,36 @@
         <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F65" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H65" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -4543,36 +4651,36 @@
         <v>22</v>
       </c>
       <c r="N65" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E66" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G66" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H66" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I66" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -4581,45 +4689,45 @@
         <v>21</v>
       </c>
       <c r="L66">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
       </c>
       <c r="N66" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>334</v>
       </c>
       <c r="G67" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="H67" t="s">
         <v>334</v>
       </c>
       <c r="I67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J67">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -4631,124 +4739,124 @@
         <v>22</v>
       </c>
       <c r="N67" t="s">
-        <v>332</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" t="s">
         <v>338</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>338</v>
+      </c>
+      <c r="H68" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" t="s">
         <v>339</v>
       </c>
-      <c r="E68" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" t="s">
-        <v>339</v>
-      </c>
-      <c r="G68" t="s">
-        <v>340</v>
-      </c>
-      <c r="H68" t="s">
-        <v>341</v>
-      </c>
-      <c r="I68" t="s">
-        <v>342</v>
-      </c>
       <c r="J68">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K68" t="s">
         <v>21</v>
       </c>
       <c r="L68">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
         <v>22</v>
       </c>
       <c r="N68" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
         <v>343</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" t="s">
         <v>344</v>
       </c>
-      <c r="C69" t="s">
+      <c r="I69" t="s">
         <v>345</v>
       </c>
-      <c r="D69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" t="s">
-        <v>346</v>
-      </c>
-      <c r="F69" t="s">
-        <v>215</v>
-      </c>
-      <c r="G69" t="s">
-        <v>346</v>
-      </c>
-      <c r="H69" t="s">
-        <v>347</v>
-      </c>
-      <c r="I69" t="s">
-        <v>348</v>
-      </c>
       <c r="J69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K69" t="s">
         <v>21</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M69" t="s">
         <v>22</v>
       </c>
       <c r="N69" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>347</v>
+      </c>
+      <c r="C70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" t="s">
+        <v>349</v>
+      </c>
+      <c r="I70" t="s">
         <v>350</v>
-      </c>
-      <c r="B70" t="s">
-        <v>351</v>
-      </c>
-      <c r="C70" t="s">
-        <v>352</v>
-      </c>
-      <c r="D70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E70" t="s">
-        <v>353</v>
-      </c>
-      <c r="F70" t="s">
-        <v>243</v>
-      </c>
-      <c r="G70" t="s">
-        <v>353</v>
-      </c>
-      <c r="H70" t="s">
-        <v>243</v>
-      </c>
-      <c r="I70" t="s">
-        <v>86</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -4763,36 +4871,36 @@
         <v>22</v>
       </c>
       <c r="N70" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="G71" t="s">
-        <v>117</v>
+        <v>353</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="I71" t="s">
-        <v>117</v>
+        <v>354</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -4801,43 +4909,43 @@
         <v>21</v>
       </c>
       <c r="L71">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M71" t="s">
         <v>22</v>
       </c>
       <c r="N71" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" t="s">
+        <v>356</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E72" t="s">
         <v>358</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
+        <v>357</v>
+      </c>
+      <c r="G72" t="s">
+        <v>358</v>
+      </c>
+      <c r="H72" t="s">
+        <v>357</v>
+      </c>
+      <c r="I72" t="s">
         <v>359</v>
       </c>
-      <c r="C72" t="s">
-        <v>360</v>
-      </c>
-      <c r="D72" t="s">
-        <v>361</v>
-      </c>
-      <c r="E72" t="s">
-        <v>362</v>
-      </c>
-      <c r="F72" t="s">
-        <v>361</v>
-      </c>
-      <c r="G72" t="s">
-        <v>362</v>
-      </c>
-      <c r="H72" t="s">
-        <v>361</v>
-      </c>
-      <c r="I72" t="s">
-        <v>363</v>
-      </c>
       <c r="J72">
         <v>2</v>
       </c>
@@ -4845,42 +4953,42 @@
         <v>21</v>
       </c>
       <c r="L72">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M72" t="s">
         <v>22</v>
       </c>
       <c r="N72" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="G73" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="I73" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -4895,36 +5003,36 @@
         <v>22</v>
       </c>
       <c r="N73" t="s">
-        <v>368</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B74" t="s">
         <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="G74" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="H74" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="I74" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -4933,42 +5041,42 @@
         <v>21</v>
       </c>
       <c r="L74">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s">
         <v>22</v>
       </c>
       <c r="N74" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B75" t="s">
         <v>356</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="E75" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -4977,42 +5085,42 @@
         <v>21</v>
       </c>
       <c r="L75">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M75" t="s">
         <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="F76" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G76" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="H76" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="I76" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -5027,36 +5135,36 @@
         <v>22</v>
       </c>
       <c r="N76" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E77" t="s">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="F77" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I77" t="s">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -5065,42 +5173,42 @@
         <v>21</v>
       </c>
       <c r="L77">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
         <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D78" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="G78" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="I78" t="s">
-        <v>384</v>
+        <v>252</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -5109,42 +5217,42 @@
         <v>21</v>
       </c>
       <c r="L78">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M78" t="s">
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E79" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G79" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="J79">
         <v>2</v>
@@ -5159,80 +5267,80 @@
         <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="F80" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="H80" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I80" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
       </c>
       <c r="L80">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N80" t="s">
-        <v>210</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="F81" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="G81" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="H81" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="I81" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -5241,57 +5349,57 @@
         <v>21</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M81" t="s">
         <v>22</v>
       </c>
       <c r="N81" t="s">
-        <v>210</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" t="s">
+        <v>392</v>
+      </c>
+      <c r="D82" t="s">
+        <v>393</v>
+      </c>
+      <c r="E82" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" t="s">
+        <v>393</v>
+      </c>
+      <c r="G82" t="s">
+        <v>394</v>
+      </c>
+      <c r="H82" t="s">
+        <v>393</v>
+      </c>
+      <c r="I82" t="s">
         <v>395</v>
       </c>
-      <c r="B82" t="s">
-        <v>359</v>
-      </c>
-      <c r="C82" t="s">
-        <v>360</v>
-      </c>
-      <c r="D82" t="s">
-        <v>371</v>
-      </c>
-      <c r="E82" t="s">
-        <v>388</v>
-      </c>
-      <c r="F82" t="s">
-        <v>371</v>
-      </c>
-      <c r="G82" t="s">
-        <v>388</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82">
+        <v>90</v>
+      </c>
+      <c r="M82" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" t="s">
         <v>396</v>
-      </c>
-      <c r="I82" t="s">
-        <v>388</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>22</v>
-      </c>
-      <c r="N82" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5299,28 +5407,28 @@
         <v>397</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C83" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="D83" t="s">
         <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F83" t="s">
         <v>398</v>
       </c>
       <c r="G83" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I83" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -5329,87 +5437,87 @@
         <v>21</v>
       </c>
       <c r="L83">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M83" t="s">
         <v>22</v>
       </c>
       <c r="N83" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" t="s">
+        <v>400</v>
+      </c>
+      <c r="C84" t="s">
         <v>401</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>402</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>403</v>
       </c>
-      <c r="D84" t="s">
-        <v>404</v>
-      </c>
-      <c r="E84" t="s">
-        <v>62</v>
-      </c>
       <c r="F84" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G84" t="s">
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="H84" t="s">
         <v>404</v>
       </c>
       <c r="I84" t="s">
+        <v>403</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" t="s">
         <v>405</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
-      </c>
-      <c r="L84">
-        <v>90</v>
-      </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B85" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" t="s">
         <v>407</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" t="s">
+        <v>407</v>
+      </c>
+      <c r="G85" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" t="s">
+        <v>407</v>
+      </c>
+      <c r="I85" t="s">
         <v>408</v>
       </c>
-      <c r="C85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" t="s">
-        <v>409</v>
-      </c>
-      <c r="E85" t="s">
-        <v>376</v>
-      </c>
-      <c r="F85" t="s">
-        <v>409</v>
-      </c>
-      <c r="G85" t="s">
-        <v>376</v>
-      </c>
-      <c r="H85" t="s">
-        <v>410</v>
-      </c>
-      <c r="I85" t="s">
-        <v>376</v>
-      </c>
       <c r="J85">
         <v>2</v>
       </c>
@@ -5417,174 +5525,174 @@
         <v>21</v>
       </c>
       <c r="L85">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>409</v>
+      </c>
+      <c r="B86" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" t="s">
+        <v>393</v>
+      </c>
+      <c r="F86" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" t="s">
+        <v>393</v>
+      </c>
+      <c r="H86" t="s">
         <v>412</v>
       </c>
-      <c r="B86" t="s">
-        <v>408</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="I86" t="s">
         <v>413</v>
       </c>
-      <c r="E86" t="s">
-        <v>376</v>
-      </c>
-      <c r="F86" t="s">
-        <v>413</v>
-      </c>
-      <c r="G86" t="s">
-        <v>376</v>
-      </c>
-      <c r="H86" t="s">
-        <v>414</v>
-      </c>
-      <c r="I86" t="s">
-        <v>376</v>
-      </c>
       <c r="J86">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M86" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87" t="s">
+        <v>410</v>
+      </c>
+      <c r="C87" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" t="s">
         <v>415</v>
       </c>
-      <c r="B87" t="s">
-        <v>408</v>
-      </c>
-      <c r="C87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" t="s">
+        <v>415</v>
+      </c>
+      <c r="G87" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" t="s">
         <v>416</v>
       </c>
-      <c r="E87" t="s">
-        <v>376</v>
-      </c>
-      <c r="F87" t="s">
-        <v>416</v>
-      </c>
-      <c r="G87" t="s">
-        <v>376</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>417</v>
       </c>
-      <c r="I87" t="s">
-        <v>376</v>
-      </c>
       <c r="J87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K87" t="s">
         <v>21</v>
       </c>
       <c r="L87">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N87" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B88" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E88" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="F88" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G88" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="H88" t="s">
+        <v>424</v>
+      </c>
+      <c r="I88" t="s">
+        <v>425</v>
+      </c>
+      <c r="J88">
+        <v>20</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88">
+        <v>270</v>
+      </c>
+      <c r="M88" t="s">
+        <v>22</v>
+      </c>
+      <c r="N88" t="s">
         <v>420</v>
-      </c>
-      <c r="I88" t="s">
-        <v>376</v>
-      </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>22</v>
-      </c>
-      <c r="N88" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="H89" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="I89" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -5599,39 +5707,39 @@
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F90" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G90" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H90" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I90" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K90" t="s">
         <v>21</v>
@@ -5643,7 +5751,315 @@
         <v>22</v>
       </c>
       <c r="N90" t="s">
-        <v>424</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" t="s">
+        <v>427</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" t="s">
+        <v>438</v>
+      </c>
+      <c r="F91" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" t="s">
+        <v>438</v>
+      </c>
+      <c r="H91" t="s">
+        <v>177</v>
+      </c>
+      <c r="I91" t="s">
+        <v>439</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91">
+        <v>270</v>
+      </c>
+      <c r="M91" t="s">
+        <v>22</v>
+      </c>
+      <c r="N91" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>440</v>
+      </c>
+      <c r="B92" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>442</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" t="s">
+        <v>442</v>
+      </c>
+      <c r="I92" t="s">
+        <v>443</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92">
+        <v>90</v>
+      </c>
+      <c r="M92" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" t="s">
+        <v>447</v>
+      </c>
+      <c r="E93" t="s">
+        <v>448</v>
+      </c>
+      <c r="F93" t="s">
+        <v>447</v>
+      </c>
+      <c r="G93" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" t="s">
+        <v>449</v>
+      </c>
+      <c r="I93" t="s">
+        <v>448</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93">
+        <v>180</v>
+      </c>
+      <c r="M93" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" t="s">
+        <v>446</v>
+      </c>
+      <c r="C94" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" t="s">
+        <v>452</v>
+      </c>
+      <c r="F94" t="s">
+        <v>451</v>
+      </c>
+      <c r="G94" t="s">
+        <v>452</v>
+      </c>
+      <c r="H94" t="s">
+        <v>451</v>
+      </c>
+      <c r="I94" t="s">
+        <v>453</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94">
+        <v>270</v>
+      </c>
+      <c r="M94" t="s">
+        <v>22</v>
+      </c>
+      <c r="N94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>454</v>
+      </c>
+      <c r="B95" t="s">
+        <v>446</v>
+      </c>
+      <c r="C95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>455</v>
+      </c>
+      <c r="F95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" t="s">
+        <v>455</v>
+      </c>
+      <c r="H95" t="s">
+        <v>456</v>
+      </c>
+      <c r="I95" t="s">
+        <v>455</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>457</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
+        <v>458</v>
+      </c>
+      <c r="E96" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>458</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
+      <c r="H96" t="s">
+        <v>458</v>
+      </c>
+      <c r="I96" t="s">
+        <v>459</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96" t="s">
+        <v>21</v>
+      </c>
+      <c r="L96">
+        <v>90</v>
+      </c>
+      <c r="M96" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>460</v>
+      </c>
+      <c r="B97" t="s">
+        <v>461</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>462</v>
+      </c>
+      <c r="E97" t="s">
+        <v>463</v>
+      </c>
+      <c r="F97" t="s">
+        <v>462</v>
+      </c>
+      <c r="G97" t="s">
+        <v>463</v>
+      </c>
+      <c r="H97" t="s">
+        <v>462</v>
+      </c>
+      <c r="I97" t="s">
+        <v>464</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97">
+        <v>90</v>
+      </c>
+      <c r="M97" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
